--- a/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
@@ -722,10 +722,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>2.75</v>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -848,7 +848,7 @@
         <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -863,10 +863,10 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
@@ -899,7 +899,7 @@
         <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
         <v>23</v>
@@ -1016,16 +1016,16 @@
         <v>1.36</v>
       </c>
       <c r="U4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1037,13 +1037,13 @@
         <v>9</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>17</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
@@ -1052,7 +1052,7 @@
         <v>6.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1061,16 +1061,16 @@
         <v>151</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
         <v>26</v>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
@@ -1263,16 +1263,16 @@
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
         <v>3.4</v>
@@ -1290,10 +1290,10 @@
         <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
         <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>2.5</v>
@@ -1435,10 +1435,10 @@
         <v>5.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="S7" t="n">
         <v>2.1</v>
@@ -1468,10 +1468,10 @@
         <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="n">
         <v>21</v>
@@ -1550,42 +1550,42 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.25</v>
+        <v>5.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="I8" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="J8" t="n">
-        <v>4.55</v>
+        <v>5.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.27</v>
       </c>
       <c r="U8" t="n">
         <v>1.38</v>
@@ -1594,58 +1594,58 @@
         <v>2.6</v>
       </c>
       <c r="W8" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.25</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AA8" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AC8" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AD8" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AE8" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI8" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AK8" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="AL8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AN8" t="n">
         <v>13</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>14.5</v>
       </c>
       <c r="AO8" t="n">
         <v>30</v>
@@ -1690,83 +1690,87 @@
         <v>1.65</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L9" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+        <v>1.29</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.55</v>
+      </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA9" t="n">
         <v>8.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AG9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>80</v>
       </c>
       <c r="AI9" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
@@ -1775,7 +1779,7 @@
         <v>15</v>
       </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
         <v>45</v>
@@ -1820,16 +1824,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
@@ -1838,10 +1842,10 @@
         <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
         <v>1.29</v>
@@ -1850,10 +1854,10 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S10" t="n">
         <v>3.4</v>
@@ -1868,10 +1872,10 @@
         <v>2.75</v>
       </c>
       <c r="W10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
@@ -1892,7 +1896,7 @@
         <v>26</v>
       </c>
       <c r="AE10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF10" t="n">
         <v>6.5</v>
@@ -1907,7 +1911,7 @@
         <v>201</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -1961,28 +1965,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
@@ -1991,7 +1995,7 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
         <v>2.05</v>
@@ -2015,22 +2019,22 @@
         <v>2.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD11" t="n">
         <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>26</v>
       </c>
       <c r="AE11" t="n">
         <v>12</v>
@@ -2048,22 +2052,22 @@
         <v>151</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
         <v>11</v>
       </c>
       <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO11" t="n">
         <v>29</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>26</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2102,7 +2106,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
@@ -2135,7 +2139,7 @@
         <v>2.7</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
         <v>5.5</v>
@@ -2213,10 +2217,10 @@
         <v>1.2</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13">
@@ -2269,28 +2273,28 @@
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U13" t="n">
         <v>1.44</v>
@@ -2392,28 +2396,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="H14" t="n">
         <v>2.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
         <v>1.75</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="M14" t="n">
         <v>1.17</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="O14" t="n">
         <v>1.65</v>
@@ -2449,22 +2453,22 @@
         <v>5.4</v>
       </c>
       <c r="Z14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA14" t="n">
         <v>10.25</v>
       </c>
-      <c r="AA14" t="n">
-        <v>10</v>
-      </c>
       <c r="AB14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD14" t="n">
         <v>50</v>
       </c>
       <c r="AE14" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AF14" t="n">
         <v>5.2</v>
@@ -2479,13 +2483,13 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AK14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AM14" t="n">
         <v>65</v>
@@ -2533,85 +2537,85 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="H15" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="I15" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="L15" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="M15" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N15" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S15" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U15" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="W15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="X15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z15" t="n">
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD15" t="n">
         <v>50</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="AF15" t="n">
         <v>5.3</v>
       </c>
       <c r="AG15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
         <v>120</v>
@@ -2620,10 +2624,10 @@
         <v>101</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL15" t="n">
         <v>13</v>
@@ -2635,7 +2639,7 @@
         <v>45</v>
       </c>
       <c r="AO15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
@@ -2674,13 +2678,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
         <v>2.77</v>
@@ -2689,13 +2693,13 @@
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.32</v>
@@ -2710,7 +2714,7 @@
         <v>1.78</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
         <v>1.31</v>
@@ -2719,7 +2723,7 @@
         <v>1.37</v>
       </c>
       <c r="V16" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="W16" t="n">
         <v>1.7</v>
@@ -2728,28 +2732,28 @@
         <v>2.05</v>
       </c>
       <c r="Y16" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA16" t="n">
         <v>8.75</v>
       </c>
       <c r="AB16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AG16" t="n">
         <v>12.5</v>
@@ -2761,10 +2765,10 @@
         <v>400</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>11</v>
@@ -2773,10 +2777,10 @@
         <v>45</v>
       </c>
       <c r="AN16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO16" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2815,31 +2819,31 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
         <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2854,7 +2858,7 @@
         <v>4.33</v>
       </c>
       <c r="T17" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U17" t="n">
         <v>1.5</v>
@@ -2863,22 +2867,22 @@
         <v>2.5</v>
       </c>
       <c r="W17" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y17" t="n">
         <v>6.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
         <v>9</v>
       </c>
       <c r="AB17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="n">
         <v>19</v>
@@ -2887,7 +2891,7 @@
         <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
@@ -2899,13 +2903,13 @@
         <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ17" t="n">
         <v>9.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>13</v>
@@ -2956,16 +2960,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H18" t="n">
         <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
         <v>2.05</v>
@@ -2977,7 +2981,7 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3019,10 +3023,10 @@
         <v>10</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD18" t="n">
         <v>34</v>
@@ -3046,13 +3050,13 @@
         <v>7.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN18" t="n">
         <v>23</v>
@@ -3109,7 +3113,7 @@
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L19" t="n">
         <v>3.75</v>
@@ -3204,10 +3208,10 @@
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -3242,22 +3246,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
@@ -3296,19 +3300,19 @@
         <v>1.67</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB20" t="n">
         <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
         <v>34</v>
@@ -3327,10 +3331,10 @@
       </c>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
         <v>17</v>
@@ -3347,10 +3351,10 @@
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="21">
@@ -3385,16 +3389,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K21" t="n">
         <v>2.38</v>
@@ -3403,22 +3407,22 @@
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S21" t="n">
         <v>3</v>
@@ -3460,7 +3464,7 @@
         <v>11</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG21" t="n">
         <v>19</v>
@@ -3472,7 +3476,7 @@
         <v>351</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
         <v>41</v>
@@ -3481,7 +3485,7 @@
         <v>23</v>
       </c>
       <c r="AM21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN21" t="n">
         <v>51</v>
@@ -3526,22 +3530,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -3556,10 +3560,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R22" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S22" t="n">
         <v>3.25</v>
@@ -3613,7 +3617,7 @@
         <v>201</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK22" t="n">
         <v>13</v>
@@ -3667,7 +3671,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H23" t="n">
         <v>3.25</v>
@@ -3697,10 +3701,10 @@
         <v>3.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S23" t="n">
         <v>3.75</v>
@@ -3808,13 +3812,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
         <v>2.6</v>
@@ -3904,7 +3908,7 @@
         <v>12</v>
       </c>
       <c r="AM24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="n">
         <v>23</v>
@@ -3953,64 +3957,64 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J25" t="n">
         <v>2.88</v>
       </c>
       <c r="K25" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
+        <v>17</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z25" t="n">
         <v>15</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>13</v>
       </c>
       <c r="AA25" t="n">
         <v>9.5</v>
@@ -4025,13 +4029,13 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>34</v>
@@ -4052,16 +4056,16 @@
         <v>29</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
         <v>23</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
@@ -4116,10 +4120,10 @@
         <v>3.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
         <v>1.25</v>
@@ -4128,10 +4132,10 @@
         <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R26" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
         <v>3</v>
@@ -4384,42 +4388,42 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="H28" t="n">
         <v>3.35</v>
       </c>
       <c r="I28" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="J28" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="K28" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R28" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="S28" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="T28" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="U28" t="n">
         <v>1.39</v>
@@ -4428,61 +4432,61 @@
         <v>2.55</v>
       </c>
       <c r="W28" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X28" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA28" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK28" t="n">
         <v>22</v>
       </c>
-      <c r="AE28" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>23</v>
-      </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN28" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4521,105 +4525,105 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="J29" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="K29" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T29" t="n">
         <v>1.28</v>
       </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U29" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="V29" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="W29" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB29" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AC29" t="n">
         <v>13</v>
       </c>
       <c r="AD29" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE29" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AI29" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AM29" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AN29" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AO29" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
@@ -4691,13 +4695,13 @@
         <v>2.15</v>
       </c>
       <c r="R30" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U30" t="n">
         <v>1.44</v>
@@ -4799,46 +4803,46 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
         <v>2.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L31" t="n">
         <v>3.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="R31" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U31" t="n">
         <v>1.4</v>
@@ -4847,34 +4851,34 @@
         <v>2.75</v>
       </c>
       <c r="W31" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="X31" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB31" t="n">
         <v>23</v>
       </c>
       <c r="AC31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
@@ -4883,13 +4887,13 @@
         <v>41</v>
       </c>
       <c r="AI31" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL31" t="n">
         <v>11</v>
@@ -5073,22 +5077,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J33" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K33" t="n">
         <v>2.38</v>
       </c>
       <c r="L33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -5130,7 +5134,7 @@
         <v>9</v>
       </c>
       <c r="Z33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA33" t="n">
         <v>8.5</v>
@@ -5163,10 +5167,10 @@
         <v>15</v>
       </c>
       <c r="AK33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM33" t="n">
         <v>41</v>
@@ -5175,7 +5179,7 @@
         <v>29</v>
       </c>
       <c r="AO33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5214,22 +5218,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H34" t="n">
         <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
         <v>2.5</v>
       </c>
       <c r="L34" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M34" t="n">
         <v>1.02</v>
@@ -5268,7 +5272,7 @@
         <v>2.63</v>
       </c>
       <c r="Y34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z34" t="n">
         <v>23</v>
@@ -5292,7 +5296,7 @@
         <v>8</v>
       </c>
       <c r="AG34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
         <v>34</v>
@@ -5460,10 +5464,10 @@
         <v>34</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5500,7 +5504,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H36" t="n">
         <v>3.75</v>
@@ -5509,7 +5513,7 @@
         <v>2.35</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
         <v>2.5</v>
@@ -5557,7 +5561,7 @@
         <v>15</v>
       </c>
       <c r="Z36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA36" t="n">
         <v>11</v>
@@ -5566,7 +5570,7 @@
         <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD36" t="n">
         <v>21</v>
@@ -5590,13 +5594,13 @@
         <v>15</v>
       </c>
       <c r="AK36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL36" t="n">
         <v>10</v>
       </c>
       <c r="AM36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN36" t="n">
         <v>17</v>
@@ -5641,7 +5645,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
         <v>6</v>
@@ -5713,7 +5717,7 @@
         <v>19</v>
       </c>
       <c r="AE37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF37" t="n">
         <v>12</v>
@@ -5923,7 +5927,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>4.5</v>
@@ -6171,10 +6175,10 @@
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="41">
@@ -6230,7 +6234,7 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O41" t="n">
         <v>1.4</v>
@@ -6251,10 +6255,10 @@
         <v>1.2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V41" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W41" t="n">
         <v>1.91</v>
@@ -6275,19 +6279,19 @@
         <v>23</v>
       </c>
       <c r="AC41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD41" t="n">
         <v>34</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF41" t="n">
         <v>6</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH41" t="n">
         <v>51</v>
@@ -6299,7 +6303,7 @@
         <v>8</v>
       </c>
       <c r="AK41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL41" t="n">
         <v>12</v>
@@ -6308,7 +6312,7 @@
         <v>34</v>
       </c>
       <c r="AN41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO41" t="n">
         <v>41</v>
@@ -6493,103 +6497,103 @@
         <v>4.25</v>
       </c>
       <c r="I43" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L43" t="n">
         <v>4.2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.25</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P43" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="R43" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="S43" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T43" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U43" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="V43" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="W43" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="X43" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z43" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AA43" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB43" t="n">
         <v>14</v>
       </c>
       <c r="AC43" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD43" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE43" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ43" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK43" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL43" t="n">
         <v>14</v>
       </c>
       <c r="AM43" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN43" t="n">
         <v>32</v>
       </c>
       <c r="AO43" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -6628,28 +6632,28 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J44" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K44" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L44" t="n">
         <v>3.4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O44" t="n">
         <v>1.44</v>
@@ -6658,16 +6662,16 @@
         <v>2.63</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="R44" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S44" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T44" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U44" t="n">
         <v>1.53</v>
@@ -6676,10 +6680,10 @@
         <v>2.38</v>
       </c>
       <c r="W44" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X44" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y44" t="n">
         <v>7</v>
@@ -6694,28 +6698,28 @@
         <v>26</v>
       </c>
       <c r="AC44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD44" t="n">
         <v>41</v>
       </c>
       <c r="AE44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH44" t="n">
         <v>67</v>
       </c>
       <c r="AI44" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK44" t="n">
         <v>12</v>
@@ -6727,7 +6731,7 @@
         <v>26</v>
       </c>
       <c r="AN44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO44" t="n">
         <v>41</v>
@@ -6735,10 +6739,10 @@
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="45">
@@ -6803,10 +6807,10 @@
         <v>7</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="S45" t="n">
         <v>1.8</v>
@@ -6914,13 +6918,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J46" t="n">
         <v>3.1</v>
@@ -6929,13 +6933,13 @@
         <v>2.25</v>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
         <v>1.2</v>
@@ -6944,10 +6948,10 @@
         <v>4.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R46" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S46" t="n">
         <v>2.63</v>
@@ -6968,19 +6972,19 @@
         <v>2.25</v>
       </c>
       <c r="Y46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z46" t="n">
         <v>15</v>
       </c>
       <c r="AA46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB46" t="n">
         <v>26</v>
       </c>
       <c r="AC46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD46" t="n">
         <v>26</v>
@@ -7004,7 +7008,7 @@
         <v>11</v>
       </c>
       <c r="AK46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL46" t="n">
         <v>10</v>
@@ -7196,61 +7200,61 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="H48" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="J48" t="n">
         <v>4.55</v>
       </c>
       <c r="K48" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L48" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="M48" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N48" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="O48" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="P48" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="R48" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S48" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T48" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U48" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="V48" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="W48" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="X48" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z48" t="n">
         <v>21</v>
@@ -7268,37 +7272,37 @@
         <v>55</v>
       </c>
       <c r="AE48" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AF48" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AG48" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI48" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="AK48" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AL48" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM48" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO48" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AP48" t="inlineStr"/>
       <c r="AQ48" t="inlineStr"/>
@@ -7337,13 +7341,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
         <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J49" t="n">
         <v>3.5</v>
@@ -7370,7 +7374,7 @@
         <v>2.35</v>
       </c>
       <c r="R49" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S49" t="n">
         <v>4.33</v>
@@ -7901,7 +7905,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H53" t="n">
         <v>3.6</v>
@@ -7931,7 +7935,7 @@
         <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R53" t="n">
         <v>2</v>
@@ -8060,10 +8064,10 @@
         <v>4.33</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O54" t="n">
         <v>1.36</v>
@@ -8468,81 +8472,85 @@
         <v>1.15</v>
       </c>
       <c r="H57" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I57" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="J57" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="K57" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="L57" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+        <v>11.5</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N57" t="n">
+        <v>10</v>
+      </c>
       <c r="O57" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P57" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="R57" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="S57" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T57" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="U57" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="V57" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="W57" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="X57" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Y57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA57" t="n">
         <v>10.25</v>
       </c>
-      <c r="Z57" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AB57" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AC57" t="n">
         <v>10.25</v>
       </c>
       <c r="AD57" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE57" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AF57" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH57" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI57" t="n">
         <v>900</v>
@@ -8554,16 +8562,16 @@
         <v>150</v>
       </c>
       <c r="AL57" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM57" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AN57" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AO57" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
@@ -8605,79 +8613,79 @@
         <v>1.37</v>
       </c>
       <c r="H58" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I58" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="J58" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="K58" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="L58" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="M58" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P58" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="R58" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="S58" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="T58" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="U58" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="V58" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="W58" t="n">
         <v>1.65</v>
       </c>
       <c r="X58" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Y58" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="Z58" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA58" t="n">
         <v>8.25</v>
       </c>
-      <c r="AA58" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB58" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AC58" t="n">
         <v>10.25</v>
       </c>
       <c r="AD58" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF58" t="n">
         <v>9.75</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>10.25</v>
       </c>
       <c r="AG58" t="n">
         <v>16</v>
@@ -8692,16 +8700,16 @@
         <v>27</v>
       </c>
       <c r="AK58" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL58" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM58" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AN58" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO58" t="n">
         <v>50</v>
@@ -8743,87 +8751,91 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H59" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I59" t="n">
         <v>8.75</v>
       </c>
       <c r="J59" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="K59" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="L59" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N59" t="n">
+        <v>10</v>
+      </c>
       <c r="O59" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P59" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R59" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="S59" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T59" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="U59" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="V59" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="W59" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X59" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="Y59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z59" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AA59" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB59" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AC59" t="n">
         <v>10</v>
       </c>
       <c r="AD59" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE59" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AF59" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG59" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH59" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI59" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AJ59" t="n">
         <v>32</v>
@@ -8835,7 +8847,7 @@
         <v>27</v>
       </c>
       <c r="AM59" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN59" t="n">
         <v>90</v>
@@ -8897,8 +8909,12 @@
       <c r="L60" t="n">
         <v>4</v>
       </c>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>6.4</v>
+      </c>
       <c r="O60" t="n">
         <v>1.47</v>
       </c>
@@ -9017,22 +9033,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H61" t="n">
         <v>3.25</v>
       </c>
       <c r="I61" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="K61" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L61" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
@@ -9062,7 +9078,7 @@
         <v>1.4</v>
       </c>
       <c r="V61" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="W61" t="n">
         <v>1.7</v>
@@ -9083,10 +9099,10 @@
         <v>22</v>
       </c>
       <c r="AC61" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE61" t="n">
         <v>7.3</v>
@@ -9104,19 +9120,19 @@
         <v>400</v>
       </c>
       <c r="AJ61" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AK61" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL61" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AM61" t="n">
         <v>40</v>
       </c>
       <c r="AN61" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO61" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
@@ -728,10 +728,10 @@
         <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.33</v>
@@ -833,28 +833,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -863,10 +863,10 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
@@ -881,16 +881,16 @@
         <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>9.5</v>
@@ -902,10 +902,10 @@
         <v>19</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>6.5</v>
@@ -935,7 +935,7 @@
         <v>21</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -977,10 +977,10 @@
         <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -1037,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
         <v>17</v>
@@ -1064,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1284,10 +1284,10 @@
         <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
         <v>2.63</v>
@@ -1367,10 +1367,10 @@
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="7">
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>2.3</v>
@@ -1423,10 +1423,10 @@
         <v>2.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O7" t="n">
         <v>1.14</v>
@@ -1842,10 +1842,10 @@
         <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
         <v>1.29</v>
@@ -1854,16 +1854,16 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U10" t="n">
         <v>1.4</v>
@@ -1965,16 +1965,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
         <v>2.25</v>
@@ -2019,10 +2019,10 @@
         <v>2.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
         <v>9</v>
@@ -2043,7 +2043,7 @@
         <v>6.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>41</v>
@@ -2058,7 +2058,7 @@
         <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
@@ -2106,16 +2106,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
         <v>1.91</v>
@@ -2196,7 +2196,7 @@
         <v>7</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL12" t="n">
         <v>13</v>
@@ -2540,7 +2540,7 @@
         <v>2.37</v>
       </c>
       <c r="H15" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="I15" t="n">
         <v>3.6</v>
@@ -2549,46 +2549,46 @@
         <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="L15" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="M15" t="n">
         <v>1.15</v>
       </c>
       <c r="N15" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.6</v>
       </c>
       <c r="P15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="R15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T15" t="n">
         <v>1.14</v>
       </c>
       <c r="U15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="X15" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Y15" t="n">
         <v>5.5</v>
@@ -2597,7 +2597,7 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB15" t="n">
         <v>26</v>
@@ -2606,16 +2606,16 @@
         <v>26</v>
       </c>
       <c r="AD15" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AF15" t="n">
         <v>5.3</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH15" t="n">
         <v>120</v>
@@ -2624,19 +2624,19 @@
         <v>101</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AK15" t="n">
         <v>17.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN15" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO15" t="n">
         <v>60</v>
@@ -2819,13 +2819,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -2840,7 +2840,7 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -2876,7 +2876,7 @@
         <v>6.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA17" t="n">
         <v>9</v>
@@ -2978,10 +2978,10 @@
         <v>3.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3119,10 +3119,10 @@
         <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -3208,10 +3208,10 @@
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="20">
@@ -3530,22 +3530,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -3593,10 +3593,10 @@
         <v>10</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD22" t="n">
         <v>29</v>
@@ -3626,7 +3626,7 @@
         <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN22" t="n">
         <v>21</v>
@@ -3842,10 +3842,10 @@
         <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R24" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S24" t="n">
         <v>2.25</v>
@@ -3917,10 +3917,10 @@
         <v>26</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -4388,16 +4388,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
         <v>3.35</v>
       </c>
       <c r="I28" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J28" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="K28" t="n">
         <v>2.1</v>
@@ -4408,22 +4408,22 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q28" t="n">
         <v>1.75</v>
       </c>
       <c r="R28" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S28" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T28" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="U28" t="n">
         <v>1.39</v>
@@ -4432,10 +4432,10 @@
         <v>2.55</v>
       </c>
       <c r="W28" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Y28" t="n">
         <v>7.9</v>
@@ -4444,25 +4444,25 @@
         <v>9.75</v>
       </c>
       <c r="AA28" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB28" t="n">
         <v>17</v>
       </c>
       <c r="AC28" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD28" t="n">
         <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF28" t="n">
         <v>6.6</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH28" t="n">
         <v>55</v>
@@ -4471,10 +4471,10 @@
         <v>400</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
         <v>12.5</v>
@@ -4525,42 +4525,42 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
         <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R29" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S29" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T29" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U29" t="n">
         <v>1.38</v>
@@ -4584,10 +4584,10 @@
         <v>8.25</v>
       </c>
       <c r="AB29" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AC29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD29" t="n">
         <v>32</v>
@@ -4596,10 +4596,10 @@
         <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AG29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH29" t="n">
         <v>110</v>
@@ -4608,22 +4608,22 @@
         <v>900</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM29" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AN29" t="n">
         <v>80</v>
       </c>
       <c r="AO29" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
         <v>4</v>
@@ -5086,7 +5086,7 @@
         <v>4.33</v>
       </c>
       <c r="J33" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K33" t="n">
         <v>2.38</v>
@@ -5125,16 +5125,16 @@
         <v>3.4</v>
       </c>
       <c r="W33" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
       </c>
       <c r="Z33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA33" t="n">
         <v>8.5</v>
@@ -5173,10 +5173,10 @@
         <v>15</v>
       </c>
       <c r="AM33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO33" t="n">
         <v>34</v>
@@ -5218,22 +5218,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="H34" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
         <v>2.5</v>
       </c>
       <c r="L34" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M34" t="n">
         <v>1.02</v>
@@ -5242,10 +5242,10 @@
         <v>19</v>
       </c>
       <c r="O34" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P34" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q34" t="n">
         <v>1.48</v>
@@ -5272,10 +5272,10 @@
         <v>2.63</v>
       </c>
       <c r="Y34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA34" t="n">
         <v>13</v>
@@ -5290,13 +5290,13 @@
         <v>26</v>
       </c>
       <c r="AE34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF34" t="n">
         <v>8</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
         <v>34</v>
@@ -5314,7 +5314,7 @@
         <v>9</v>
       </c>
       <c r="AM34" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AN34" t="n">
         <v>13</v>
@@ -5359,7 +5359,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H35" t="n">
         <v>4.5</v>
@@ -5374,7 +5374,7 @@
         <v>2.5</v>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5452,13 +5452,13 @@
         <v>29</v>
       </c>
       <c r="AL35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM35" t="n">
         <v>51</v>
       </c>
       <c r="AN35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO35" t="n">
         <v>34</v>
@@ -5951,22 +5951,22 @@
         <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R39" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S39" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T39" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U39" t="n">
         <v>1.3</v>
@@ -6222,7 +6222,7 @@
         <v>3.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
         <v>2</v>
@@ -6243,10 +6243,10 @@
         <v>2.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R41" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S41" t="n">
         <v>4.33</v>
@@ -6255,10 +6255,10 @@
         <v>1.2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V41" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W41" t="n">
         <v>1.91</v>
@@ -6279,19 +6279,19 @@
         <v>23</v>
       </c>
       <c r="AC41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD41" t="n">
         <v>34</v>
       </c>
       <c r="AE41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF41" t="n">
         <v>6</v>
       </c>
       <c r="AG41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH41" t="n">
         <v>51</v>
@@ -6300,10 +6300,10 @@
         <v>351</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL41" t="n">
         <v>12</v>
@@ -6500,10 +6500,10 @@
         <v>4.15</v>
       </c>
       <c r="J43" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="K43" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L43" t="n">
         <v>4.2</v>
@@ -6515,43 +6515,43 @@
         <v>9.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P43" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R43" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S43" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T43" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U43" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="V43" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="W43" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X43" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z43" t="n">
         <v>10</v>
       </c>
       <c r="AA43" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB43" t="n">
         <v>14</v>
@@ -6560,13 +6560,13 @@
         <v>11.75</v>
       </c>
       <c r="AD43" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE43" t="n">
         <v>9.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AG43" t="n">
         <v>13.5</v>
@@ -6578,7 +6578,7 @@
         <v>250</v>
       </c>
       <c r="AJ43" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK43" t="n">
         <v>27</v>
@@ -6587,13 +6587,13 @@
         <v>14</v>
       </c>
       <c r="AM43" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN43" t="n">
         <v>32</v>
       </c>
       <c r="AO43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -6641,7 +6641,7 @@
         <v>2.63</v>
       </c>
       <c r="J44" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
         <v>1.95</v>
@@ -6650,22 +6650,22 @@
         <v>3.4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P44" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R44" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S44" t="n">
         <v>4.33</v>
@@ -6674,10 +6674,10 @@
         <v>1.2</v>
       </c>
       <c r="U44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V44" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W44" t="n">
         <v>2</v>
@@ -6686,7 +6686,7 @@
         <v>1.73</v>
       </c>
       <c r="Y44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z44" t="n">
         <v>12</v>
@@ -6713,7 +6713,7 @@
         <v>17</v>
       </c>
       <c r="AH44" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI44" t="n">
         <v>1000</v>
@@ -6792,14 +6792,10 @@
         <v>3.1</v>
       </c>
       <c r="L45" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N45" t="n">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="n">
         <v>1.08</v>
       </c>
@@ -6813,10 +6809,10 @@
         <v>3.4</v>
       </c>
       <c r="S45" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T45" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U45" t="n">
         <v>1.2</v>
@@ -6825,10 +6821,10 @@
         <v>4.33</v>
       </c>
       <c r="W45" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X45" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y45" t="n">
         <v>12</v>
@@ -6858,7 +6854,7 @@
         <v>26</v>
       </c>
       <c r="AH45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI45" t="n">
         <v>700</v>
@@ -6918,16 +6914,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J46" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K46" t="n">
         <v>2.25</v>
@@ -6936,10 +6932,10 @@
         <v>2.88</v>
       </c>
       <c r="M46" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
         <v>1.2</v>
@@ -6948,10 +6944,10 @@
         <v>4.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R46" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S46" t="n">
         <v>2.63</v>
@@ -6981,7 +6977,7 @@
         <v>11</v>
       </c>
       <c r="AB46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC46" t="n">
         <v>21</v>
@@ -7005,19 +7001,19 @@
         <v>126</v>
       </c>
       <c r="AJ46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK46" t="n">
         <v>13</v>
       </c>
       <c r="AL46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO46" t="n">
         <v>23</v>
@@ -7347,10 +7343,10 @@
         <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J49" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K49" t="n">
         <v>1.95</v>
@@ -7398,7 +7394,7 @@
         <v>7.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA49" t="n">
         <v>11</v>
@@ -7428,7 +7424,7 @@
         <v>351</v>
       </c>
       <c r="AJ49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK49" t="n">
         <v>12</v>
@@ -8205,10 +8201,10 @@
         <v>3.6</v>
       </c>
       <c r="M55" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O55" t="n">
         <v>1.33</v>
@@ -8241,13 +8237,13 @@
         <v>1.83</v>
       </c>
       <c r="Y55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z55" t="n">
         <v>11</v>
       </c>
       <c r="AA55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB55" t="n">
         <v>23</v>
@@ -8283,7 +8279,7 @@
         <v>11</v>
       </c>
       <c r="AM55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN55" t="n">
         <v>26</v>
@@ -8469,22 +8465,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="H57" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I57" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="J57" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="K57" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="L57" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="M57" t="n">
         <v>1.02</v>
@@ -8493,52 +8489,52 @@
         <v>10</v>
       </c>
       <c r="O57" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P57" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="R57" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="S57" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T57" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U57" t="n">
         <v>1.23</v>
       </c>
       <c r="V57" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="W57" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X57" t="n">
         <v>1.65</v>
       </c>
       <c r="Y57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z57" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AA57" t="n">
         <v>10.25</v>
       </c>
       <c r="AB57" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AC57" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD57" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE57" t="n">
         <v>10</v>
@@ -8547,13 +8543,13 @@
         <v>14.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH57" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI57" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AJ57" t="n">
         <v>45</v>
@@ -8562,16 +8558,16 @@
         <v>150</v>
       </c>
       <c r="AL57" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM57" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AN57" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AO57" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
@@ -8751,19 +8747,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H59" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I59" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="J59" t="n">
         <v>1.65</v>
       </c>
       <c r="K59" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L59" t="n">
         <v>7</v>
@@ -8781,10 +8777,10 @@
         <v>5.3</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R59" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="S59" t="n">
         <v>1.95</v>
@@ -8796,16 +8792,16 @@
         <v>1.23</v>
       </c>
       <c r="V59" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="W59" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X59" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Y59" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z59" t="n">
         <v>7.7</v>
@@ -8826,7 +8822,7 @@
         <v>10</v>
       </c>
       <c r="AF59" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG59" t="n">
         <v>20</v>
@@ -8844,7 +8840,7 @@
         <v>70</v>
       </c>
       <c r="AL59" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM59" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
@@ -722,16 +722,16 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
         <v>1.33</v>
@@ -740,16 +740,16 @@
         <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>7</v>
@@ -782,13 +782,13 @@
         <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL2" t="n">
         <v>8.5</v>
       </c>
       <c r="AM2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN2" t="n">
         <v>13</v>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -851,10 +851,10 @@
         <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -863,10 +863,10 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
@@ -881,10 +881,10 @@
         <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -905,7 +905,7 @@
         <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>6.5</v>
@@ -932,7 +932,7 @@
         <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
         <v>29</v>
@@ -977,10 +977,10 @@
         <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -998,16 +998,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="S4" t="n">
         <v>3.2</v>
@@ -1070,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
         <v>26</v>
@@ -1121,7 +1121,7 @@
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>2.6</v>
@@ -1145,10 +1145,10 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
@@ -1199,7 +1199,7 @@
         <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ5" t="n">
         <v>13</v>
@@ -1260,22 +1260,22 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.9</v>
-      </c>
       <c r="I6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1290,10 +1290,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1308,16 +1308,16 @@
         <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>12</v>
@@ -1335,16 +1335,16 @@
         <v>6.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>67</v>
       </c>
       <c r="AI6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ6" t="n">
         <v>6.5</v>
@@ -1353,10 +1353,10 @@
         <v>11</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN6" t="n">
         <v>23</v>
@@ -1367,10 +1367,10 @@
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
         <v>2.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>2.5</v>
@@ -1426,13 +1426,13 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q7" t="n">
         <v>1.44</v>
@@ -1480,7 +1480,7 @@
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.15</v>
       </c>
       <c r="L9" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1719,7 +1719,7 @@
         <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="T9" t="n">
         <v>1.29</v>
@@ -1728,28 +1728,28 @@
         <v>1.39</v>
       </c>
       <c r="V9" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="W9" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="X9" t="n">
         <v>1.75</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AA9" t="n">
         <v>8.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD9" t="n">
         <v>29</v>
@@ -1758,34 +1758,34 @@
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI9" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM9" t="n">
         <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1854,16 +1854,16 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U10" t="n">
         <v>1.4</v>
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2121,7 +2121,7 @@
         <v>1.91</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.13</v>
@@ -2160,19 +2160,19 @@
         <v>1.62</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
         <v>11</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD12" t="n">
         <v>41</v>
@@ -2199,13 +2199,13 @@
         <v>13</v>
       </c>
       <c r="AL12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM12" t="n">
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
         <v>41</v>
@@ -2217,10 +2217,10 @@
         <v>1.2</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="13">
@@ -2255,19 +2255,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
         <v>5</v>
@@ -2297,10 +2297,10 @@
         <v>1.22</v>
       </c>
       <c r="U13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W13" t="n">
         <v>2</v>
@@ -2312,7 +2312,7 @@
         <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
         <v>9</v>
@@ -2351,7 +2351,7 @@
         <v>15</v>
       </c>
       <c r="AM13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
         <v>41</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>2.5</v>
@@ -2405,7 +2405,7 @@
         <v>3.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
         <v>1.75</v>
@@ -2456,13 +2456,13 @@
         <v>10.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD14" t="n">
         <v>50</v>
@@ -2483,13 +2483,13 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AK14" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM14" t="n">
         <v>65</v>
@@ -2537,109 +2537,109 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="I15" t="n">
         <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="L15" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="M15" t="n">
         <v>1.15</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="O15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X15" t="n">
         <v>1.6</v>
       </c>
-      <c r="P15" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.65</v>
-      </c>
       <c r="Y15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AD15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="AF15" t="n">
         <v>5.3</v>
       </c>
       <c r="AG15" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI15" t="n">
         <v>101</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AK15" t="n">
         <v>17.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM15" t="n">
         <v>55</v>
       </c>
       <c r="AN15" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AO15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
@@ -2690,7 +2690,7 @@
         <v>2.77</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L16" t="n">
         <v>3.7</v>
@@ -2699,40 +2699,40 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R16" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="V16" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="W16" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X16" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="Z16" t="n">
         <v>11.25</v>
@@ -2747,10 +2747,10 @@
         <v>18.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF16" t="n">
         <v>5.9</v>
@@ -2762,13 +2762,13 @@
         <v>55</v>
       </c>
       <c r="AI16" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>11</v>
@@ -2777,7 +2777,7 @@
         <v>45</v>
       </c>
       <c r="AN16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
         <v>32</v>
@@ -2840,13 +2840,13 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q17" t="n">
         <v>2.3</v>
@@ -2873,7 +2873,7 @@
         <v>1.73</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z17" t="n">
         <v>9</v>
@@ -2882,7 +2882,7 @@
         <v>9</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
         <v>19</v>
@@ -2900,13 +2900,13 @@
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI17" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
@@ -2960,22 +2960,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -3002,10 +3002,10 @@
         <v>1.22</v>
       </c>
       <c r="U18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W18" t="n">
         <v>1.91</v>
@@ -3017,7 +3017,7 @@
         <v>7.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA18" t="n">
         <v>10</v>
@@ -3032,7 +3032,7 @@
         <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
         <v>6.5</v>
@@ -3047,7 +3047,7 @@
         <v>351</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
         <v>13</v>
@@ -3101,22 +3101,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
         <v>1.95</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -3131,10 +3131,10 @@
         <v>2.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="n">
         <v>4.5</v>
@@ -3149,16 +3149,16 @@
         <v>2.38</v>
       </c>
       <c r="W19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
         <v>11</v>
@@ -3188,10 +3188,10 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL19" t="n">
         <v>11</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>41</v>
@@ -3208,10 +3208,10 @@
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="20">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
@@ -3294,40 +3294,40 @@
         <v>2.38</v>
       </c>
       <c r="W20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y20" t="n">
         <v>5.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA20" t="n">
         <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
         <v>17</v>
       </c>
       <c r="AD20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="n">
@@ -3337,7 +3337,7 @@
         <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
         <v>51</v>
@@ -3351,10 +3351,10 @@
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="21">
@@ -3389,13 +3389,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
         <v>1.95</v>
@@ -3413,22 +3413,22 @@
         <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U21" t="n">
         <v>1.36</v>
@@ -3437,13 +3437,13 @@
         <v>3</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X21" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z21" t="n">
         <v>6.5</v>
@@ -3452,13 +3452,13 @@
         <v>8.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC21" t="n">
         <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
         <v>11</v>
@@ -3470,7 +3470,7 @@
         <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="n">
         <v>351</v>
@@ -3482,7 +3482,7 @@
         <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>81</v>
@@ -3530,22 +3530,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -3593,10 +3593,10 @@
         <v>10</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD22" t="n">
         <v>29</v>
@@ -3617,7 +3617,7 @@
         <v>201</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK22" t="n">
         <v>13</v>
@@ -3626,7 +3626,7 @@
         <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN22" t="n">
         <v>21</v>
@@ -3671,16 +3671,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J23" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
@@ -3689,10 +3689,10 @@
         <v>4.33</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -3701,16 +3701,16 @@
         <v>3.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R23" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U23" t="n">
         <v>1.44</v>
@@ -3728,7 +3728,7 @@
         <v>7</v>
       </c>
       <c r="Z23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA23" t="n">
         <v>9</v>
@@ -3743,7 +3743,7 @@
         <v>29</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
         <v>6.5</v>
@@ -3755,10 +3755,10 @@
         <v>51</v>
       </c>
       <c r="AI23" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
         <v>19</v>
@@ -3842,10 +3842,10 @@
         <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S24" t="n">
         <v>2.25</v>
@@ -3881,7 +3881,7 @@
         <v>15</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -3917,10 +3917,10 @@
         <v>26</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -3957,13 +3957,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J25" t="n">
         <v>2.88</v>
@@ -3972,13 +3972,13 @@
         <v>2.38</v>
       </c>
       <c r="L25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O25" t="n">
         <v>1.17</v>
@@ -3987,22 +3987,22 @@
         <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S25" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W25" t="n">
         <v>1.5</v>
@@ -4011,10 +4011,10 @@
         <v>2.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
         <v>9.5</v>
@@ -4029,10 +4029,10 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
@@ -4056,16 +4056,16 @@
         <v>29</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO25" t="n">
         <v>23</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
@@ -4102,13 +4102,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
@@ -4117,7 +4117,7 @@
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -4144,10 +4144,10 @@
         <v>1.36</v>
       </c>
       <c r="U26" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V26" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W26" t="n">
         <v>1.67</v>
@@ -4162,7 +4162,7 @@
         <v>13</v>
       </c>
       <c r="AA26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB26" t="n">
         <v>23</v>
@@ -4174,7 +4174,7 @@
         <v>26</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF26" t="n">
         <v>6.5</v>
@@ -4189,16 +4189,16 @@
         <v>151</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN26" t="n">
         <v>21</v>
@@ -4243,19 +4243,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K27" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L27" t="n">
         <v>5</v>
@@ -4273,10 +4273,10 @@
         <v>4.33</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R27" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S27" t="n">
         <v>2.63</v>
@@ -4285,10 +4285,10 @@
         <v>1.44</v>
       </c>
       <c r="U27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V27" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W27" t="n">
         <v>1.73</v>
@@ -4297,7 +4297,7 @@
         <v>2</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z27" t="n">
         <v>8.5</v>
@@ -4312,10 +4312,10 @@
         <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF27" t="n">
         <v>8</v>
@@ -4327,10 +4327,10 @@
         <v>41</v>
       </c>
       <c r="AI27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
         <v>29</v>
@@ -4388,42 +4388,42 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H28" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J28" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L28" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="R28" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S28" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="T28" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="U28" t="n">
         <v>1.39</v>
@@ -4432,52 +4432,52 @@
         <v>2.55</v>
       </c>
       <c r="W28" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="X28" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="Z28" t="n">
         <v>9.75</v>
       </c>
       <c r="AA28" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF28" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM28" t="n">
         <v>60</v>
@@ -4486,7 +4486,7 @@
         <v>35</v>
       </c>
       <c r="AO28" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4528,39 +4528,39 @@
         <v>1.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K29" t="n">
         <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R29" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S29" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T29" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="U29" t="n">
         <v>1.38</v>
@@ -4569,16 +4569,16 @@
         <v>2.57</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X29" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Y29" t="n">
         <v>5.7</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AA29" t="n">
         <v>8.25</v>
@@ -4593,10 +4593,10 @@
         <v>32</v>
       </c>
       <c r="AE29" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG29" t="n">
         <v>19.5</v>
@@ -4608,13 +4608,13 @@
         <v>900</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK29" t="n">
         <v>40</v>
       </c>
       <c r="AL29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM29" t="n">
         <v>150</v>
@@ -4623,7 +4623,7 @@
         <v>80</v>
       </c>
       <c r="AO29" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
@@ -4662,13 +4662,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
@@ -4704,10 +4704,10 @@
         <v>1.22</v>
       </c>
       <c r="U30" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V30" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W30" t="n">
         <v>1.91</v>
@@ -4734,7 +4734,7 @@
         <v>34</v>
       </c>
       <c r="AE30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>6</v>
@@ -4764,7 +4764,7 @@
         <v>26</v>
       </c>
       <c r="AO30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
@@ -4806,19 +4806,19 @@
         <v>2.55</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
         <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
@@ -4827,16 +4827,16 @@
         <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="n">
         <v>2.05</v>
       </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
         <v>3.5</v>
@@ -4845,19 +4845,19 @@
         <v>1.29</v>
       </c>
       <c r="U31" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V31" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W31" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z31" t="n">
         <v>12</v>
@@ -4866,7 +4866,7 @@
         <v>10</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC31" t="n">
         <v>21</v>
@@ -4875,7 +4875,7 @@
         <v>29</v>
       </c>
       <c r="AE31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF31" t="n">
         <v>6</v>
@@ -4884,13 +4884,13 @@
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK31" t="n">
         <v>13</v>
@@ -4902,10 +4902,10 @@
         <v>29</v>
       </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -5359,22 +5359,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H35" t="n">
         <v>4.5</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K35" t="n">
         <v>2.5</v>
       </c>
       <c r="L35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5389,10 +5389,10 @@
         <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R35" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S35" t="n">
         <v>2.38</v>
@@ -5407,16 +5407,16 @@
         <v>3.5</v>
       </c>
       <c r="W35" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X35" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z35" t="n">
         <v>9</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>8.5</v>
       </c>
       <c r="AA35" t="n">
         <v>8.5</v>
@@ -5452,22 +5452,22 @@
         <v>29</v>
       </c>
       <c r="AL35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM35" t="n">
         <v>51</v>
       </c>
       <c r="AN35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO35" t="n">
         <v>34</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5816,10 +5816,10 @@
         <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R38" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S38" t="n">
         <v>2.75</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H39" t="n">
         <v>4.5</v>
@@ -5936,13 +5936,13 @@
         <v>5.75</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K39" t="n">
         <v>2.4</v>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -5957,10 +5957,10 @@
         <v>4.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R39" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S39" t="n">
         <v>2.5</v>
@@ -5975,13 +5975,13 @@
         <v>3.4</v>
       </c>
       <c r="W39" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X39" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z39" t="n">
         <v>8</v>
@@ -5996,7 +5996,7 @@
         <v>12</v>
       </c>
       <c r="AD39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE39" t="n">
         <v>15</v>
@@ -6023,7 +6023,7 @@
         <v>17</v>
       </c>
       <c r="AM39" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN39" t="n">
         <v>41</v>
@@ -6031,8 +6031,12 @@
       <c r="AO39" t="n">
         <v>41</v>
       </c>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
+      <c r="AP39" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1.83</v>
+      </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
     </row>
@@ -6491,22 +6495,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H43" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="I43" t="n">
-        <v>4.15</v>
+        <v>4.55</v>
       </c>
       <c r="J43" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="K43" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="L43" t="n">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6521,22 +6525,22 @@
         <v>4.7</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R43" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="S43" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U43" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="V43" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="W43" t="n">
         <v>1.53</v>
@@ -6545,19 +6549,19 @@
         <v>2.35</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z43" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA43" t="n">
         <v>8.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC43" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AD43" t="n">
         <v>18.5</v>
@@ -6566,7 +6570,7 @@
         <v>9.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AG43" t="n">
         <v>13.5</v>
@@ -6578,22 +6582,22 @@
         <v>250</v>
       </c>
       <c r="AJ43" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AK43" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM43" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN43" t="n">
+        <v>35</v>
+      </c>
+      <c r="AO43" t="n">
         <v>32</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>30</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -6635,37 +6639,37 @@
         <v>2.55</v>
       </c>
       <c r="H44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
         <v>2.63</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K44" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L44" t="n">
         <v>3.4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O44" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P44" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R44" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S44" t="n">
         <v>4.33</v>
@@ -6674,10 +6678,10 @@
         <v>1.2</v>
       </c>
       <c r="U44" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V44" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W44" t="n">
         <v>2</v>
@@ -6686,7 +6690,7 @@
         <v>1.73</v>
       </c>
       <c r="Y44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z44" t="n">
         <v>12</v>
@@ -6698,22 +6702,22 @@
         <v>26</v>
       </c>
       <c r="AC44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD44" t="n">
         <v>41</v>
       </c>
       <c r="AE44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG44" t="n">
         <v>17</v>
       </c>
       <c r="AH44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI44" t="n">
         <v>1000</v>
@@ -6731,7 +6735,7 @@
         <v>26</v>
       </c>
       <c r="AN44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO44" t="n">
         <v>41</v>
@@ -6739,10 +6743,10 @@
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="45">
@@ -6780,7 +6784,7 @@
         <v>1.17</v>
       </c>
       <c r="H45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I45" t="n">
         <v>11</v>
@@ -6794,8 +6798,12 @@
       <c r="L45" t="n">
         <v>9</v>
       </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N45" t="n">
+        <v>15</v>
+      </c>
       <c r="O45" t="n">
         <v>1.08</v>
       </c>
@@ -6803,10 +6811,10 @@
         <v>7</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R45" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S45" t="n">
         <v>1.73</v>
@@ -6815,10 +6823,10 @@
         <v>2</v>
       </c>
       <c r="U45" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="V45" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W45" t="n">
         <v>1.83</v>
@@ -6830,7 +6838,7 @@
         <v>12</v>
       </c>
       <c r="Z45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA45" t="n">
         <v>11</v>
@@ -6845,7 +6853,7 @@
         <v>26</v>
       </c>
       <c r="AE45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF45" t="n">
         <v>17</v>
@@ -6866,7 +6874,7 @@
         <v>51</v>
       </c>
       <c r="AL45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM45" t="n">
         <v>151</v>
@@ -6914,28 +6922,28 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J46" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K46" t="n">
         <v>2.25</v>
       </c>
       <c r="L46" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
         <v>1.2</v>
@@ -6944,16 +6952,16 @@
         <v>4.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R46" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S46" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T46" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U46" t="n">
         <v>1.33</v>
@@ -6971,7 +6979,7 @@
         <v>12</v>
       </c>
       <c r="Z46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA46" t="n">
         <v>11</v>
@@ -7004,7 +7012,7 @@
         <v>10</v>
       </c>
       <c r="AK46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL46" t="n">
         <v>9.5</v>
@@ -7073,10 +7081,10 @@
         <v>4.33</v>
       </c>
       <c r="M47" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O47" t="n">
         <v>1.3</v>
@@ -7343,10 +7351,10 @@
         <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J49" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K49" t="n">
         <v>1.95</v>
@@ -7361,10 +7369,10 @@
         <v>8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q49" t="n">
         <v>2.35</v>
@@ -7394,7 +7402,7 @@
         <v>7.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA49" t="n">
         <v>11</v>
@@ -7409,7 +7417,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF49" t="n">
         <v>6</v>
@@ -7443,8 +7451,12 @@
       </c>
       <c r="AP49" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="inlineStr"/>
+      <c r="AR49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7478,82 +7490,82 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="H50" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I50" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="J50" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="K50" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L50" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O50" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P50" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R50" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S50" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="T50" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="U50" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="V50" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="W50" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X50" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="Y50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z50" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA50" t="n">
         <v>9</v>
       </c>
       <c r="AB50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC50" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD50" t="n">
         <v>23</v>
       </c>
       <c r="AE50" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF50" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AG50" t="n">
         <v>12</v>
@@ -7568,19 +7580,19 @@
         <v>10.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL50" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AM50" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN50" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO50" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
@@ -7760,22 +7772,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>3.45</v>
       </c>
       <c r="I52" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="J52" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K52" t="n">
         <v>2.2</v>
       </c>
       <c r="L52" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M52" t="n">
         <v>1.04</v>
@@ -7808,22 +7820,22 @@
         <v>3</v>
       </c>
       <c r="W52" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X52" t="n">
         <v>2.3</v>
       </c>
       <c r="Y52" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z52" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA52" t="n">
         <v>9</v>
       </c>
       <c r="AB52" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC52" t="n">
         <v>16.5</v>
@@ -7847,13 +7859,13 @@
         <v>250</v>
       </c>
       <c r="AJ52" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK52" t="n">
         <v>16.5</v>
       </c>
       <c r="AL52" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AM52" t="n">
         <v>35</v>
@@ -7931,10 +7943,10 @@
         <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S53" t="n">
         <v>2.75</v>
@@ -8072,10 +8084,10 @@
         <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R54" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S54" t="n">
         <v>4</v>
@@ -8186,13 +8198,13 @@
         <v>2.4</v>
       </c>
       <c r="H55" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K55" t="n">
         <v>2.05</v>
@@ -8204,19 +8216,19 @@
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P55" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R55" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S55" t="n">
         <v>3.75</v>
@@ -8243,7 +8255,7 @@
         <v>11</v>
       </c>
       <c r="AA55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB55" t="n">
         <v>23</v>
@@ -8252,10 +8264,10 @@
         <v>21</v>
       </c>
       <c r="AD55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF55" t="n">
         <v>6</v>
@@ -8267,10 +8279,10 @@
         <v>51</v>
       </c>
       <c r="AI55" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK55" t="n">
         <v>15</v>
@@ -8279,7 +8291,7 @@
         <v>11</v>
       </c>
       <c r="AM55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN55" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.33</v>
@@ -707,7 +707,7 @@
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -779,7 +779,7 @@
         <v>151</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK2" t="n">
         <v>9.5</v>
@@ -833,28 +833,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -881,28 +881,28 @@
         <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD3" t="n">
         <v>23</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
@@ -920,16 +920,16 @@
         <v>151</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
         <v>23</v>
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
         <v>2.6</v>
@@ -1139,40 +1139,40 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
         <v>8.5</v>
@@ -1184,25 +1184,25 @@
         <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF5" t="n">
         <v>6.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>
@@ -1214,10 +1214,10 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP5" t="n">
         <v>2.03</v>
@@ -1263,19 +1263,19 @@
         <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1308,16 +1308,16 @@
         <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y6" t="n">
         <v>7.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
         <v>12</v>
@@ -1353,10 +1353,10 @@
         <v>11</v>
       </c>
       <c r="AL6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN6" t="n">
         <v>23</v>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
         <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>2.5</v>
@@ -1426,40 +1426,40 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="U7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
         <v>19</v>
@@ -1474,10 +1474,10 @@
         <v>19</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
         <v>8.5</v>
@@ -1486,25 +1486,25 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
@@ -2124,10 +2124,10 @@
         <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.53</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I14" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>1.75</v>
       </c>
       <c r="L14" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="M14" t="n">
         <v>1.17</v>
       </c>
       <c r="N14" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.65</v>
@@ -2450,16 +2450,16 @@
         <v>1.57</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA14" t="n">
         <v>10</v>
       </c>
       <c r="AB14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
         <v>27</v>
@@ -2468,10 +2468,10 @@
         <v>50</v>
       </c>
       <c r="AE14" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AG14" t="n">
         <v>19</v>
@@ -2483,10 +2483,10 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AK14" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL14" t="n">
         <v>14</v>
@@ -2495,7 +2495,7 @@
         <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO14" t="n">
         <v>70</v>
@@ -2537,40 +2537,40 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H15" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
         <v>1.75</v>
       </c>
       <c r="L15" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="M15" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N15" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="O15" t="n">
         <v>1.65</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="R15" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
         <v>5.3</v>
@@ -2591,28 +2591,28 @@
         <v>1.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z15" t="n">
         <v>10.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC15" t="n">
         <v>29</v>
       </c>
-      <c r="AC15" t="n">
-        <v>28</v>
-      </c>
       <c r="AD15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AG15" t="n">
         <v>18.5</v>
@@ -2624,7 +2624,7 @@
         <v>101</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
         <v>17.5</v>
@@ -2678,43 +2678,43 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="J16" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="K16" t="n">
         <v>2.07</v>
       </c>
       <c r="L16" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T16" t="n">
         <v>1.3</v>
@@ -2723,7 +2723,7 @@
         <v>1.38</v>
       </c>
       <c r="V16" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="W16" t="n">
         <v>1.72</v>
@@ -2735,52 +2735,52 @@
         <v>7.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AF16" t="n">
         <v>5.9</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI16" t="n">
         <v>450</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AM16" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2819,28 +2819,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K17" t="n">
         <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -2849,16 +2849,16 @@
         <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U17" t="n">
         <v>1.5</v>
@@ -2873,13 +2873,13 @@
         <v>1.73</v>
       </c>
       <c r="Y17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z17" t="n">
         <v>9</v>
       </c>
       <c r="AA17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB17" t="n">
         <v>19</v>
@@ -2900,16 +2900,16 @@
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
         <v>13</v>
@@ -2960,7 +2960,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H18" t="n">
         <v>3.3</v>
@@ -2969,7 +2969,7 @@
         <v>2.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
         <v>2.05</v>
@@ -2978,10 +2978,10 @@
         <v>3.6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3002,10 +3002,10 @@
         <v>1.22</v>
       </c>
       <c r="U18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W18" t="n">
         <v>1.91</v>
@@ -3032,7 +3032,7 @@
         <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF18" t="n">
         <v>6.5</v>
@@ -3413,22 +3413,22 @@
         <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U21" t="n">
         <v>1.36</v>
@@ -3530,13 +3530,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
@@ -3545,7 +3545,7 @@
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -3560,16 +3560,16 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U22" t="n">
         <v>1.4</v>
@@ -3602,7 +3602,7 @@
         <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF22" t="n">
         <v>6.5</v>
@@ -3812,79 +3812,79 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H24" t="n">
         <v>3.75</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J24" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L24" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R24" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S24" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X24" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
         <v>11</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>12</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
         <v>15</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
         <v>7.5</v>
@@ -3893,10 +3893,10 @@
         <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI24" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ24" t="n">
         <v>15</v>
@@ -3905,22 +3905,22 @@
         <v>21</v>
       </c>
       <c r="AL24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM24" t="n">
         <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -3957,13 +3957,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J25" t="n">
         <v>2.88</v>
@@ -3972,7 +3972,7 @@
         <v>2.38</v>
       </c>
       <c r="L25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -3993,10 +3993,10 @@
         <v>2.3</v>
       </c>
       <c r="S25" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U25" t="n">
         <v>1.3</v>
@@ -4011,13 +4011,13 @@
         <v>2.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB25" t="n">
         <v>23</v>
@@ -4056,7 +4056,7 @@
         <v>29</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
         <v>23</v>
@@ -4102,13 +4102,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H26" t="n">
         <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
@@ -4117,7 +4117,7 @@
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -4144,10 +4144,10 @@
         <v>1.36</v>
       </c>
       <c r="U26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W26" t="n">
         <v>1.67</v>
@@ -4162,7 +4162,7 @@
         <v>13</v>
       </c>
       <c r="AA26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB26" t="n">
         <v>23</v>
@@ -4189,16 +4189,16 @@
         <v>151</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN26" t="n">
         <v>21</v>
@@ -4388,39 +4388,39 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H28" t="n">
         <v>3.45</v>
       </c>
       <c r="I28" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J28" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K28" t="n">
         <v>2.15</v>
       </c>
       <c r="L28" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P28" t="n">
         <v>3.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S28" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="T28" t="n">
         <v>1.39</v>
@@ -4438,10 +4438,10 @@
         <v>2.07</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA28" t="n">
         <v>8</v>
@@ -4453,13 +4453,13 @@
         <v>13.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF28" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
@@ -4471,10 +4471,10 @@
         <v>350</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK28" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
         <v>13</v>
@@ -4528,10 +4528,10 @@
         <v>1.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="J29" t="n">
         <v>1.98</v>
@@ -4545,22 +4545,22 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R29" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S29" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T29" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U29" t="n">
         <v>1.38</v>
@@ -4575,7 +4575,7 @@
         <v>1.62</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z29" t="n">
         <v>6.2</v>
@@ -4584,7 +4584,7 @@
         <v>8.25</v>
       </c>
       <c r="AB29" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AC29" t="n">
         <v>13.5</v>
@@ -4593,10 +4593,10 @@
         <v>32</v>
       </c>
       <c r="AE29" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG29" t="n">
         <v>19.5</v>
@@ -4611,19 +4611,19 @@
         <v>15.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
       </c>
       <c r="AM29" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AN29" t="n">
         <v>80</v>
       </c>
       <c r="AO29" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
@@ -4821,10 +4821,10 @@
         <v>3.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
         <v>1.33</v>
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H33" t="n">
         <v>4</v>
@@ -5086,7 +5086,7 @@
         <v>4.33</v>
       </c>
       <c r="J33" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K33" t="n">
         <v>2.38</v>
@@ -5125,16 +5125,16 @@
         <v>3.4</v>
       </c>
       <c r="W33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
       </c>
       <c r="Z33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA33" t="n">
         <v>8.5</v>
@@ -5173,7 +5173,7 @@
         <v>15</v>
       </c>
       <c r="AM33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN33" t="n">
         <v>34</v>
@@ -5218,13 +5218,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -5233,13 +5233,13 @@
         <v>2.5</v>
       </c>
       <c r="L34" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M34" t="n">
         <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O34" t="n">
         <v>1.13</v>
@@ -5359,13 +5359,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I35" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4.75</v>
       </c>
       <c r="J35" t="n">
         <v>2.1</v>
@@ -5389,10 +5389,10 @@
         <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R35" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S35" t="n">
         <v>2.38</v>
@@ -5422,7 +5422,7 @@
         <v>8.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC35" t="n">
         <v>12</v>
@@ -5434,7 +5434,7 @@
         <v>17</v>
       </c>
       <c r="AF35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG35" t="n">
         <v>15</v>
@@ -5449,7 +5449,7 @@
         <v>17</v>
       </c>
       <c r="AK35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL35" t="n">
         <v>15</v>
@@ -5464,10 +5464,10 @@
         <v>34</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5660,7 +5660,7 @@
         <v>2.75</v>
       </c>
       <c r="L37" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M37" t="n">
         <v>1.01</v>
@@ -5675,10 +5675,10 @@
         <v>7</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R37" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S37" t="n">
         <v>1.83</v>
@@ -5927,22 +5927,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>4.5</v>
       </c>
       <c r="I39" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -5993,7 +5993,7 @@
         <v>11</v>
       </c>
       <c r="AC39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD39" t="n">
         <v>21</v>
@@ -6014,16 +6014,16 @@
         <v>201</v>
       </c>
       <c r="AJ39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN39" t="n">
         <v>41</v>
@@ -6072,58 +6072,58 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I40" t="n">
         <v>2.2</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K40" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L40" t="n">
         <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P40" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S40" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U40" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V40" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X40" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="Y40" t="n">
         <v>8.5</v>
@@ -6144,7 +6144,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF40" t="n">
         <v>6</v>
@@ -6156,16 +6156,16 @@
         <v>67</v>
       </c>
       <c r="AI40" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ40" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK40" t="n">
         <v>9.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM40" t="n">
         <v>21</v>
@@ -6174,15 +6174,15 @@
         <v>21</v>
       </c>
       <c r="AO40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="41">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H43" t="n">
         <v>4.4</v>
       </c>
       <c r="I43" t="n">
-        <v>4.55</v>
+        <v>4.2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K43" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="L43" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6537,31 +6537,31 @@
         <v>1.65</v>
       </c>
       <c r="U43" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="V43" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="W43" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X43" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z43" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA43" t="n">
         <v>8.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC43" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD43" t="n">
         <v>18.5</v>
@@ -6570,34 +6570,34 @@
         <v>9.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG43" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI43" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ43" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN43" t="n">
         <v>32</v>
       </c>
-      <c r="AL43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>35</v>
-      </c>
       <c r="AO43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -6654,10 +6654,10 @@
         <v>3.4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O44" t="n">
         <v>1.44</v>
@@ -6666,10 +6666,10 @@
         <v>2.63</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="R44" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S44" t="n">
         <v>4.33</v>
@@ -6743,10 +6743,10 @@
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -6781,19 +6781,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I45" t="n">
         <v>11</v>
       </c>
       <c r="J45" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="K45" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L45" t="n">
         <v>9</v>
@@ -6802,25 +6802,25 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="O45" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R45" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="S45" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="U45" t="n">
         <v>1.17</v>
@@ -6835,37 +6835,37 @@
         <v>1.83</v>
       </c>
       <c r="Y45" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA45" t="n">
         <v>12</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AB45" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>8</v>
       </c>
       <c r="AC45" t="n">
         <v>11</v>
       </c>
       <c r="AD45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG45" t="n">
         <v>29</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>26</v>
       </c>
       <c r="AH45" t="n">
         <v>51</v>
       </c>
       <c r="AI45" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AJ45" t="n">
         <v>34</v>
@@ -6877,7 +6877,7 @@
         <v>29</v>
       </c>
       <c r="AM45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN45" t="n">
         <v>67</v>
@@ -7631,52 +7631,52 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="H51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="J51" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K51" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L51" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="M51" t="n">
         <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R51" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S51" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="T51" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="U51" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V51" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="W51" t="n">
         <v>1.65</v>
@@ -7685,28 +7685,28 @@
         <v>2.1</v>
       </c>
       <c r="Y51" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AA51" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AC51" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD51" t="n">
         <v>35</v>
       </c>
       <c r="AE51" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AF51" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AG51" t="n">
         <v>13</v>
@@ -7718,19 +7718,19 @@
         <v>400</v>
       </c>
       <c r="AJ51" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AK51" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AL51" t="n">
         <v>8.5</v>
       </c>
       <c r="AM51" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AN51" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO51" t="n">
         <v>24</v>
@@ -7913,22 +7913,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K53" t="n">
         <v>2.25</v>
       </c>
       <c r="L53" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M53" t="n">
         <v>1.04</v>
@@ -7961,16 +7961,16 @@
         <v>3</v>
       </c>
       <c r="W53" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X53" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
       </c>
       <c r="Z53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA53" t="n">
         <v>8.5</v>
@@ -7991,13 +7991,13 @@
         <v>7</v>
       </c>
       <c r="AG53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH53" t="n">
         <v>41</v>
       </c>
       <c r="AI53" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ53" t="n">
         <v>13</v>
@@ -8015,7 +8015,7 @@
         <v>34</v>
       </c>
       <c r="AO53" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP53" t="inlineStr"/>
       <c r="AQ53" t="inlineStr"/>
@@ -8078,22 +8078,22 @@
         <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P54" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R54" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T54" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U54" t="n">
         <v>1.5</v>
@@ -8195,16 +8195,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J55" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K55" t="n">
         <v>2.05</v>
@@ -8216,7 +8216,7 @@
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O55" t="n">
         <v>1.36</v>
@@ -8252,7 +8252,7 @@
         <v>7.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA55" t="n">
         <v>10</v>
@@ -8285,7 +8285,7 @@
         <v>8.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL55" t="n">
         <v>11</v>
@@ -8294,7 +8294,7 @@
         <v>29</v>
       </c>
       <c r="AN55" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO55" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
@@ -752,7 +752,7 @@
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -848,7 +848,7 @@
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -863,16 +863,16 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U3" t="n">
         <v>1.36</v>
@@ -890,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>9</v>
@@ -902,16 +902,16 @@
         <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>6.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -920,7 +920,7 @@
         <v>151</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
         <v>17</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -1016,16 +1016,16 @@
         <v>1.36</v>
       </c>
       <c r="U4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1037,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>17</v>
@@ -1064,13 +1064,13 @@
         <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
         <v>26</v>
@@ -1115,79 +1115,79 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.29</v>
       </c>
-      <c r="P5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.33</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W5" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
         <v>8.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
         <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
         <v>6.5</v>
@@ -1199,7 +1199,7 @@
         <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
@@ -1208,7 +1208,7 @@
         <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -1290,10 +1290,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1367,10 +1367,10 @@
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="7">
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>2.5</v>
@@ -1426,40 +1426,40 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
         <v>19</v>
@@ -1474,37 +1474,37 @@
         <v>19</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="n">
         <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
         <v>10</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
@@ -1842,28 +1842,28 @@
         <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.3</v>
       </c>
       <c r="U10" t="n">
         <v>1.4</v>
@@ -1965,22 +1965,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
         <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2013,25 +2013,25 @@
         <v>3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
         <v>9</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
         <v>23</v>
@@ -2040,7 +2040,7 @@
         <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -2055,19 +2055,19 @@
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO11" t="n">
         <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>29</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2121,13 +2121,13 @@
         <v>1.91</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
         <v>1.53</v>
@@ -2160,19 +2160,19 @@
         <v>1.62</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA12" t="n">
         <v>11</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD12" t="n">
         <v>41</v>
@@ -2205,7 +2205,7 @@
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
         <v>41</v>
@@ -2540,25 +2540,25 @@
         <v>2.52</v>
       </c>
       <c r="H15" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
         <v>1.75</v>
       </c>
       <c r="L15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M15" t="n">
         <v>1.17</v>
       </c>
       <c r="N15" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.65</v>
@@ -2591,25 +2591,25 @@
         <v>1.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA15" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB15" t="n">
         <v>30</v>
       </c>
       <c r="AC15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AF15" t="n">
         <v>5.2</v>
@@ -2618,22 +2618,22 @@
         <v>18.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI15" t="n">
         <v>101</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AK15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
         <v>13</v>
       </c>
       <c r="AM15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN15" t="n">
         <v>45</v>
@@ -2678,64 +2678,64 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>3.55</v>
       </c>
       <c r="J16" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="K16" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="Q16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X16" t="n">
         <v>1.93</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X16" t="n">
-        <v>2.02</v>
       </c>
       <c r="Y16" t="n">
         <v>7.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AA16" t="n">
         <v>8.5</v>
@@ -2744,43 +2744,43 @@
         <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI16" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AM16" t="n">
         <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO16" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2960,7 +2960,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
         <v>3.3</v>
@@ -2969,7 +2969,7 @@
         <v>2.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>2.05</v>
@@ -2981,7 +2981,7 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3014,7 +3014,7 @@
         <v>1.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z18" t="n">
         <v>11</v>
@@ -3032,7 +3032,7 @@
         <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
         <v>6.5</v>
@@ -3101,28 +3101,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
         <v>1.95</v>
       </c>
       <c r="L19" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -3155,19 +3155,19 @@
         <v>1.73</v>
       </c>
       <c r="Y19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA19" t="n">
         <v>12</v>
       </c>
-      <c r="AA19" t="n">
-        <v>11</v>
-      </c>
       <c r="AB19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD19" t="n">
         <v>41</v>
@@ -3188,19 +3188,19 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM19" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>41</v>
@@ -3246,90 +3246,92 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L20" t="n">
         <v>5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V20" t="n">
         <v>2.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="W20" t="n">
         <v>2</v>
       </c>
-      <c r="L20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.2</v>
-      </c>
       <c r="X20" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA20" t="n">
         <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
         <v>17</v>
       </c>
       <c r="AD20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF20" t="n">
         <v>6.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI20" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
       <c r="AJ20" t="n">
         <v>11</v>
       </c>
@@ -3337,7 +3339,7 @@
         <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM20" t="n">
         <v>51</v>
@@ -3351,10 +3353,10 @@
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="21">
@@ -3530,22 +3532,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -3560,16 +3562,16 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R22" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U22" t="n">
         <v>1.4</v>
@@ -3584,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z22" t="n">
         <v>13</v>
@@ -3593,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
         <v>21</v>
@@ -3602,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF22" t="n">
         <v>6.5</v>
@@ -3620,13 +3622,13 @@
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL22" t="n">
         <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN22" t="n">
         <v>21</v>
@@ -3812,13 +3814,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
         <v>2.5</v>
@@ -3836,22 +3838,22 @@
         <v>15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R24" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U24" t="n">
         <v>1.3</v>
@@ -3860,10 +3862,10 @@
         <v>3.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X24" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y24" t="n">
         <v>10</v>
@@ -3957,13 +3959,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J25" t="n">
         <v>2.88</v>
@@ -3972,13 +3974,13 @@
         <v>2.38</v>
       </c>
       <c r="L25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O25" t="n">
         <v>1.17</v>
@@ -3987,10 +3989,10 @@
         <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R25" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S25" t="n">
         <v>2.38</v>
@@ -3999,10 +4001,10 @@
         <v>1.53</v>
       </c>
       <c r="U25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W25" t="n">
         <v>1.5</v>
@@ -4014,10 +4016,10 @@
         <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB25" t="n">
         <v>23</v>
@@ -4029,7 +4031,7 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
         <v>7</v>
@@ -4056,16 +4058,16 @@
         <v>29</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO25" t="n">
         <v>23</v>
       </c>
       <c r="AP25" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
@@ -4246,7 +4248,7 @@
         <v>1.6</v>
       </c>
       <c r="H27" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
         <v>4.75</v>
@@ -4255,7 +4257,7 @@
         <v>2.2</v>
       </c>
       <c r="K27" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L27" t="n">
         <v>5</v>
@@ -4267,55 +4269,55 @@
         <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S27" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W27" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA27" t="n">
         <v>8.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
         <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
         <v>8</v>
@@ -4327,10 +4329,10 @@
         <v>41</v>
       </c>
       <c r="AI27" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
         <v>29</v>
@@ -4342,16 +4344,16 @@
         <v>51</v>
       </c>
       <c r="AN27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4388,42 +4390,42 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.85</v>
+        <v>2.37</v>
       </c>
       <c r="H28" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.37</v>
+        <v>2.95</v>
       </c>
       <c r="K28" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="L28" t="n">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R28" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S28" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="T28" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="U28" t="n">
         <v>1.39</v>
@@ -4432,61 +4434,61 @@
         <v>2.55</v>
       </c>
       <c r="W28" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="X28" t="n">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AA28" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AB28" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="AC28" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD28" t="n">
         <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF28" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AH28" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AI28" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AM28" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AN28" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AO28" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4692,10 +4694,10 @@
         <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S30" t="n">
         <v>4</v>
@@ -4833,16 +4835,16 @@
         <v>3.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U31" t="n">
         <v>1.44</v>
@@ -5077,13 +5079,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H33" t="n">
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J33" t="n">
         <v>2.3</v>
@@ -5092,7 +5094,7 @@
         <v>2.38</v>
       </c>
       <c r="L33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -5170,13 +5172,13 @@
         <v>23</v>
       </c>
       <c r="AL33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM33" t="n">
         <v>41</v>
       </c>
       <c r="AN33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO33" t="n">
         <v>34</v>
@@ -5218,58 +5220,58 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I34" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L34" t="n">
         <v>2.5</v>
       </c>
-      <c r="L34" t="n">
-        <v>2.38</v>
-      </c>
       <c r="M34" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O34" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R34" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S34" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T34" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="U34" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V34" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y34" t="n">
         <v>19</v>
@@ -5322,8 +5324,12 @@
       <c r="AO34" t="n">
         <v>19</v>
       </c>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
+      <c r="AP34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>2</v>
+      </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
     </row>
@@ -5504,22 +5510,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L36" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
@@ -5528,22 +5534,22 @@
         <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P36" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R36" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U36" t="n">
         <v>1.25</v>
@@ -5552,22 +5558,22 @@
         <v>3.75</v>
       </c>
       <c r="W36" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC36" t="n">
         <v>19</v>
@@ -5576,10 +5582,10 @@
         <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
@@ -5591,7 +5597,7 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK36" t="n">
         <v>15</v>
@@ -5600,16 +5606,20 @@
         <v>10</v>
       </c>
       <c r="AM36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN36" t="n">
         <v>17</v>
       </c>
       <c r="AO36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>2.05</v>
+      </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
     </row>
@@ -5660,7 +5670,7 @@
         <v>2.75</v>
       </c>
       <c r="L37" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
         <v>1.01</v>
@@ -5675,10 +5685,10 @@
         <v>7</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R37" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S37" t="n">
         <v>1.83</v>
@@ -5957,10 +5967,10 @@
         <v>4.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R39" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S39" t="n">
         <v>2.5</v>
@@ -6032,10 +6042,10 @@
         <v>41</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6102,10 +6112,10 @@
         <v>2.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R40" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -6179,10 +6189,10 @@
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="41">
@@ -6226,7 +6236,7 @@
         <v>3.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K41" t="n">
         <v>2</v>
@@ -6235,10 +6245,10 @@
         <v>3.75</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O41" t="n">
         <v>1.4</v>
@@ -6259,10 +6269,10 @@
         <v>1.2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V41" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W41" t="n">
         <v>1.91</v>
@@ -6289,7 +6299,7 @@
         <v>34</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF41" t="n">
         <v>6</v>
@@ -6304,7 +6314,7 @@
         <v>351</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK41" t="n">
         <v>15</v>
@@ -6323,8 +6333,12 @@
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
+      <c r="AR41" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6495,94 +6509,94 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H43" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I43" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L43" t="n">
         <v>4.2</v>
       </c>
-      <c r="J43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N43" t="n">
+        <v>10</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X43" t="n">
         <v>2.5</v>
       </c>
-      <c r="L43" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N43" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="V43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X43" t="n">
-        <v>2.37</v>
-      </c>
       <c r="Y43" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AA43" t="n">
         <v>8.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC43" t="n">
         <v>11.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF43" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AG43" t="n">
         <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI43" t="n">
         <v>200</v>
       </c>
       <c r="AJ43" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK43" t="n">
         <v>29</v>
@@ -6597,7 +6611,7 @@
         <v>32</v>
       </c>
       <c r="AO43" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -6642,7 +6656,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J44" t="n">
         <v>3.4</v>
@@ -6651,7 +6665,7 @@
         <v>1.91</v>
       </c>
       <c r="L44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M44" t="n">
         <v>1.1</v>
@@ -6660,40 +6674,40 @@
         <v>6.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P44" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T44" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U44" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V44" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X44" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA44" t="n">
         <v>11</v>
@@ -6708,13 +6722,13 @@
         <v>41</v>
       </c>
       <c r="AE44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF44" t="n">
         <v>6</v>
       </c>
       <c r="AG44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH44" t="n">
         <v>67</v>
@@ -6723,16 +6737,16 @@
         <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK44" t="n">
         <v>12</v>
       </c>
       <c r="AL44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN44" t="n">
         <v>26</v>
@@ -6743,10 +6757,10 @@
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="45">
@@ -6805,10 +6819,10 @@
         <v>34</v>
       </c>
       <c r="O45" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q45" t="n">
         <v>1.25</v>
@@ -6865,7 +6879,7 @@
         <v>51</v>
       </c>
       <c r="AI45" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AJ45" t="n">
         <v>34</v>
@@ -6940,28 +6954,28 @@
         <v>2.75</v>
       </c>
       <c r="M46" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P46" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="R46" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="S46" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T46" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U46" t="n">
         <v>1.33</v>
@@ -7063,22 +7077,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J47" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K47" t="n">
         <v>2.1</v>
       </c>
       <c r="L47" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M47" t="n">
         <v>1.06</v>
@@ -7120,13 +7134,13 @@
         <v>7</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA47" t="n">
         <v>9</v>
       </c>
       <c r="AB47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC47" t="n">
         <v>15</v>
@@ -7138,10 +7152,10 @@
         <v>9.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH47" t="n">
         <v>51</v>
@@ -7153,16 +7167,16 @@
         <v>12</v>
       </c>
       <c r="AK47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL47" t="n">
         <v>15</v>
       </c>
       <c r="AM47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN47" t="n">
         <v>41</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>34</v>
       </c>
       <c r="AO47" t="n">
         <v>41</v>
@@ -7204,46 +7218,46 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.05</v>
+        <v>4.7</v>
       </c>
       <c r="H48" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="I48" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="J48" t="n">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L48" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="M48" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P48" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="R48" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S48" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="T48" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="U48" t="n">
         <v>1.47</v>
@@ -7252,58 +7266,58 @@
         <v>2.5</v>
       </c>
       <c r="W48" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X48" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z48" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AA48" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AC48" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD48" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE48" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AG48" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI48" t="n">
         <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AK48" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="AL48" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AM48" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AN48" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AO48" t="n">
         <v>35</v>
@@ -7345,79 +7359,79 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L49" t="n">
         <v>3.5</v>
       </c>
-      <c r="K49" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M49" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O49" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P49" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U49" t="n">
         <v>1.57</v>
       </c>
-      <c r="S49" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.53</v>
-      </c>
       <c r="V49" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W49" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X49" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA49" t="n">
         <v>12</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>11</v>
       </c>
       <c r="AB49" t="n">
         <v>29</v>
       </c>
       <c r="AC49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD49" t="n">
         <v>41</v>
       </c>
       <c r="AE49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF49" t="n">
         <v>6</v>
@@ -7426,16 +7440,16 @@
         <v>17</v>
       </c>
       <c r="AH49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI49" t="n">
         <v>351</v>
       </c>
       <c r="AJ49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL49" t="n">
         <v>11</v>
@@ -7444,7 +7458,7 @@
         <v>26</v>
       </c>
       <c r="AN49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO49" t="n">
         <v>41</v>
@@ -7452,10 +7466,10 @@
       <c r="AP49" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
       <c r="AR49" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="50">
@@ -7490,19 +7504,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="H50" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
         <v>2.72</v>
       </c>
       <c r="J50" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="K50" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L50" t="n">
         <v>3.25</v>
@@ -7514,28 +7528,28 @@
         <v>8.25</v>
       </c>
       <c r="O50" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P50" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R50" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S50" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="T50" t="n">
         <v>1.44</v>
       </c>
       <c r="U50" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="V50" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W50" t="n">
         <v>1.57</v>
@@ -7544,7 +7558,7 @@
         <v>2.27</v>
       </c>
       <c r="Y50" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z50" t="n">
         <v>13.5</v>
@@ -7556,16 +7570,16 @@
         <v>25</v>
       </c>
       <c r="AC50" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD50" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE50" t="n">
         <v>8.25</v>
       </c>
       <c r="AF50" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AG50" t="n">
         <v>12</v>
@@ -7574,7 +7588,7 @@
         <v>45</v>
       </c>
       <c r="AI50" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AJ50" t="n">
         <v>10.5</v>
@@ -7592,7 +7606,7 @@
         <v>21</v>
       </c>
       <c r="AO50" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
@@ -7913,16 +7927,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H53" t="n">
         <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J53" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K53" t="n">
         <v>2.25</v>
@@ -7967,7 +7981,7 @@
         <v>2.1</v>
       </c>
       <c r="Y53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z53" t="n">
         <v>9.5</v>
@@ -7979,7 +7993,7 @@
         <v>15</v>
       </c>
       <c r="AC53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD53" t="n">
         <v>23</v>
@@ -8003,16 +8017,16 @@
         <v>13</v>
       </c>
       <c r="AK53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM53" t="n">
         <v>41</v>
       </c>
       <c r="AN53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO53" t="n">
         <v>34</v>
@@ -8054,22 +8068,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H54" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I54" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J54" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K54" t="n">
         <v>2.05</v>
       </c>
       <c r="L54" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M54" t="n">
         <v>1.07</v>
@@ -8084,16 +8098,16 @@
         <v>2.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R54" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S54" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T54" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U54" t="n">
         <v>1.5</v>
@@ -8102,25 +8116,25 @@
         <v>2.5</v>
       </c>
       <c r="W54" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X54" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y54" t="n">
         <v>6.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA54" t="n">
         <v>9</v>
       </c>
       <c r="AB54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD54" t="n">
         <v>34</v>
@@ -8135,16 +8149,16 @@
         <v>17</v>
       </c>
       <c r="AH54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI54" t="n">
         <v>351</v>
       </c>
       <c r="AJ54" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL54" t="n">
         <v>13</v>
@@ -8336,19 +8350,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H56" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I56" t="n">
         <v>1.91</v>
       </c>
       <c r="J56" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K56" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L56" t="n">
         <v>2.45</v>
@@ -8357,61 +8371,61 @@
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O56" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R56" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S56" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="T56" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="U56" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="V56" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="W56" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X56" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y56" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z56" t="n">
         <v>21</v>
       </c>
       <c r="AA56" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB56" t="n">
         <v>50</v>
       </c>
       <c r="AC56" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AD56" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE56" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF56" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AG56" t="n">
         <v>12.5</v>
@@ -8423,7 +8437,7 @@
         <v>300</v>
       </c>
       <c r="AJ56" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK56" t="n">
         <v>10.5</v>
@@ -8618,109 +8632,109 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="H58" t="n">
-        <v>4.7</v>
+        <v>4.45</v>
       </c>
       <c r="I58" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="J58" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="K58" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="L58" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="M58" t="n">
         <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O58" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P58" t="n">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="Q58" t="n">
         <v>1.47</v>
       </c>
       <c r="R58" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="S58" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T58" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U58" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="V58" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W58" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X58" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Y58" t="n">
         <v>9.25</v>
       </c>
       <c r="Z58" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AA58" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB58" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AC58" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE58" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF58" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AG58" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH58" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI58" t="n">
         <v>300</v>
       </c>
       <c r="AJ58" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AK58" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN58" t="n">
         <v>60</v>
       </c>
-      <c r="AL58" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>175</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>70</v>
-      </c>
       <c r="AO58" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
@@ -9041,52 +9055,52 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I61" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J61" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="K61" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L61" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O61" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P61" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R61" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S61" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="T61" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="U61" t="n">
         <v>1.4</v>
       </c>
       <c r="V61" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="W61" t="n">
         <v>1.7</v>
@@ -9095,31 +9109,31 @@
         <v>2.05</v>
       </c>
       <c r="Y61" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="Z61" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AA61" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE61" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AF61" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH61" t="n">
         <v>55</v>
@@ -9128,22 +9142,22 @@
         <v>400</v>
       </c>
       <c r="AJ61" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AK61" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AL61" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AM61" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AN61" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO61" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
@@ -695,94 +695,94 @@
         <v>4.33</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.8</v>
       </c>
-      <c r="J2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Y2" t="n">
         <v>13</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>15</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD2" t="n">
         <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
         <v>8.5</v>
@@ -794,7 +794,7 @@
         <v>13</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -863,16 +863,16 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U3" t="n">
         <v>1.36</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -1004,10 +1004,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="S4" t="n">
         <v>3.2</v>
@@ -1037,13 +1037,13 @@
         <v>9</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
         <v>17</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
@@ -1061,16 +1061,16 @@
         <v>151</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
         <v>26</v>
@@ -1115,61 +1115,61 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
         <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U5" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="V5" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="X5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z5" t="n">
         <v>8.5</v>
@@ -1184,13 +1184,13 @@
         <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
@@ -1199,19 +1199,19 @@
         <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>15</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>34</v>
@@ -1290,10 +1290,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1367,10 +1367,10 @@
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1550,105 +1550,105 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>5.4</v>
+        <v>4.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="L8" t="n">
-        <v>2.07</v>
+        <v>2.27</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="n">
         <v>1.82</v>
       </c>
       <c r="R8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.78</v>
       </c>
-      <c r="S8" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.91</v>
-      </c>
       <c r="X8" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>600</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN8" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>13</v>
-      </c>
       <c r="AO8" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1687,42 +1687,42 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>4.05</v>
       </c>
       <c r="J9" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="K9" t="n">
         <v>2.15</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S9" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="U9" t="n">
         <v>1.39</v>
@@ -1731,61 +1731,61 @@
         <v>2.57</v>
       </c>
       <c r="W9" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD9" t="n">
         <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AG9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>90</v>
       </c>
       <c r="AI9" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AN9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO9" t="n">
         <v>50</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>55</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2163,7 +2163,7 @@
         <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
         <v>11</v>
@@ -2172,7 +2172,7 @@
         <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD12" t="n">
         <v>41</v>
@@ -2205,7 +2205,7 @@
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
         <v>41</v>
@@ -2255,22 +2255,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K13" t="n">
         <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2297,10 +2297,10 @@
         <v>1.22</v>
       </c>
       <c r="U13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W13" t="n">
         <v>2</v>
@@ -2309,7 +2309,7 @@
         <v>1.73</v>
       </c>
       <c r="Y13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z13" t="n">
         <v>8</v>
@@ -2330,10 +2330,10 @@
         <v>8.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
         <v>67</v>
@@ -2354,7 +2354,7 @@
         <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO13" t="n">
         <v>41</v>
@@ -2537,106 +2537,106 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="H15" t="n">
         <v>2.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="L15" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="M15" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="O15" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="U15" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X15" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB15" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC15" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AD15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AF15" t="n">
         <v>5.2</v>
       </c>
       <c r="AG15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI15" t="n">
         <v>101</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN15" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO15" t="n">
         <v>65</v>
@@ -2819,16 +2819,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
         <v>2</v>
@@ -2876,16 +2876,16 @@
         <v>6.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA17" t="n">
         <v>9.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD17" t="n">
         <v>34</v>
@@ -2960,22 +2960,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
         <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -3017,13 +3017,13 @@
         <v>7</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
         <v>21</v>
@@ -3032,7 +3032,7 @@
         <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF18" t="n">
         <v>6.5</v>
@@ -3050,19 +3050,19 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
         <v>11</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3107,7 +3107,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
@@ -3119,10 +3119,10 @@
         <v>3.25</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -3164,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="AB19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC19" t="n">
         <v>29</v>
@@ -3246,28 +3246,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -3294,22 +3294,22 @@
         <v>2.5</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA20" t="n">
         <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
         <v>17</v>
@@ -3324,7 +3324,7 @@
         <v>6.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
         <v>67</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.95</v>
@@ -3439,13 +3439,13 @@
         <v>3</v>
       </c>
       <c r="W21" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z21" t="n">
         <v>6.5</v>
@@ -3454,13 +3454,13 @@
         <v>8.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC21" t="n">
         <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
         <v>11</v>
@@ -3472,7 +3472,7 @@
         <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI21" t="n">
         <v>351</v>
@@ -3484,7 +3484,7 @@
         <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
         <v>81</v>
@@ -3532,22 +3532,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -3562,16 +3562,16 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U22" t="n">
         <v>1.4</v>
@@ -3586,19 +3586,19 @@
         <v>2</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB22" t="n">
         <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD22" t="n">
         <v>29</v>
@@ -3619,22 +3619,22 @@
         <v>201</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK22" t="n">
         <v>12</v>
       </c>
       <c r="AL22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM22" t="n">
         <v>23</v>
       </c>
       <c r="AN22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3691,16 +3691,16 @@
         <v>4.33</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="n">
         <v>2.05</v>
@@ -3817,7 +3817,7 @@
         <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
         <v>3.6</v>
@@ -3826,67 +3826,67 @@
         <v>2.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="S24" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="T24" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W24" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
         <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
         <v>7.5</v>
@@ -3895,10 +3895,10 @@
         <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ24" t="n">
         <v>15</v>
@@ -3916,13 +3916,13 @@
         <v>26</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -3980,25 +3980,25 @@
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R25" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S25" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U25" t="n">
         <v>1.29</v>
@@ -4064,10 +4064,10 @@
         <v>23</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
@@ -4275,10 +4275,10 @@
         <v>4.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R27" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S27" t="n">
         <v>2.5</v>
@@ -4350,10 +4350,10 @@
         <v>34</v>
       </c>
       <c r="AP27" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4527,42 +4527,42 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="K29" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L29" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="R29" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="S29" t="n">
-        <v>3.1</v>
+        <v>2.67</v>
       </c>
       <c r="T29" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="U29" t="n">
         <v>1.38</v>
@@ -4571,61 +4571,61 @@
         <v>2.57</v>
       </c>
       <c r="W29" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="X29" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="AC29" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD29" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AE29" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AG29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>600</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL29" t="n">
         <v>19.5</v>
       </c>
-      <c r="AH29" t="n">
-        <v>110</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>900</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>21</v>
-      </c>
       <c r="AM29" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AN29" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO29" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
@@ -4664,13 +4664,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
@@ -4718,7 +4718,7 @@
         <v>1.91</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z30" t="n">
         <v>11</v>
@@ -4727,7 +4727,7 @@
         <v>9.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
         <v>21</v>
@@ -4763,7 +4763,7 @@
         <v>34</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO30" t="n">
         <v>41</v>
@@ -4805,10 +4805,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
         <v>2.88</v>
@@ -4817,7 +4817,7 @@
         <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L31" t="n">
         <v>3.5</v>
@@ -4829,16 +4829,16 @@
         <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R31" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
         <v>3.75</v>
@@ -4847,19 +4847,19 @@
         <v>1.25</v>
       </c>
       <c r="U31" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V31" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W31" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X31" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z31" t="n">
         <v>12</v>
@@ -4874,25 +4874,25 @@
         <v>21</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF31" t="n">
         <v>6</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>51</v>
       </c>
       <c r="AI31" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
         <v>13</v>
@@ -5082,10 +5082,10 @@
         <v>1.75</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J33" t="n">
         <v>2.3</v>
@@ -5094,7 +5094,7 @@
         <v>2.38</v>
       </c>
       <c r="L33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -5250,16 +5250,16 @@
         <v>5.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R34" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U34" t="n">
         <v>1.29</v>
@@ -5325,10 +5325,10 @@
         <v>19</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5365,7 +5365,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H35" t="n">
         <v>4.33</v>
@@ -5380,7 +5380,7 @@
         <v>2.5</v>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5513,7 +5513,7 @@
         <v>2.55</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I36" t="n">
         <v>2.45</v>
@@ -5522,10 +5522,10 @@
         <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
@@ -5534,22 +5534,22 @@
         <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R36" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S36" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="U36" t="n">
         <v>1.25</v>
@@ -5558,34 +5558,34 @@
         <v>3.75</v>
       </c>
       <c r="W36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z36" t="n">
         <v>17</v>
       </c>
       <c r="AA36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD36" t="n">
         <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
@@ -5597,10 +5597,10 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL36" t="n">
         <v>10</v>
@@ -5612,7 +5612,7 @@
         <v>17</v>
       </c>
       <c r="AO36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP36" t="n">
         <v>1.8</v>
@@ -5820,22 +5820,22 @@
         <v>13</v>
       </c>
       <c r="O38" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R38" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S38" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T38" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U38" t="n">
         <v>1.33</v>
@@ -6100,10 +6100,10 @@
         <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O40" t="n">
         <v>1.5</v>
@@ -6112,10 +6112,10 @@
         <v>2.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -6189,10 +6189,10 @@
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="41">
@@ -6245,28 +6245,28 @@
         <v>3.75</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O41" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P41" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R41" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S41" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T41" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U41" t="n">
         <v>1.53</v>
@@ -6372,63 +6372,63 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="H42" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I42" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="J42" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K42" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="L42" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P42" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="R42" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="S42" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="T42" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="U42" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="V42" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="W42" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X42" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Y42" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z42" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA42" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB42" t="n">
         <v>200</v>
@@ -6440,10 +6440,10 @@
         <v>50</v>
       </c>
       <c r="AE42" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF42" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AG42" t="n">
         <v>16.5</v>
@@ -6452,16 +6452,16 @@
         <v>50</v>
       </c>
       <c r="AI42" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AJ42" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AK42" t="n">
         <v>8.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM42" t="n">
         <v>9.75</v>
@@ -6470,7 +6470,7 @@
         <v>9.75</v>
       </c>
       <c r="AO42" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
@@ -6650,22 +6650,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J44" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
         <v>1.91</v>
       </c>
       <c r="L44" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M44" t="n">
         <v>1.1</v>
@@ -6674,16 +6674,16 @@
         <v>6.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P44" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R44" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S44" t="n">
         <v>4.5</v>
@@ -6692,10 +6692,10 @@
         <v>1.17</v>
       </c>
       <c r="U44" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V44" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W44" t="n">
         <v>2.1</v>
@@ -6704,7 +6704,7 @@
         <v>1.67</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z44" t="n">
         <v>11</v>
@@ -6713,16 +6713,16 @@
         <v>11</v>
       </c>
       <c r="AB44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD44" t="n">
         <v>41</v>
       </c>
       <c r="AE44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF44" t="n">
         <v>6</v>
@@ -6737,10 +6737,10 @@
         <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL44" t="n">
         <v>12</v>
@@ -6749,7 +6749,7 @@
         <v>29</v>
       </c>
       <c r="AN44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO44" t="n">
         <v>41</v>
@@ -6757,10 +6757,10 @@
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="45">
@@ -6795,13 +6795,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H45" t="n">
         <v>9</v>
       </c>
       <c r="I45" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J45" t="n">
         <v>1.44</v>
@@ -6816,13 +6816,13 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="O45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q45" t="n">
         <v>1.25</v>
@@ -6843,19 +6843,19 @@
         <v>4.5</v>
       </c>
       <c r="W45" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X45" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z45" t="n">
         <v>9</v>
       </c>
       <c r="AA45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB45" t="n">
         <v>8.5</v>
@@ -6873,25 +6873,25 @@
         <v>19</v>
       </c>
       <c r="AG45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH45" t="n">
         <v>51</v>
       </c>
       <c r="AI45" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="AJ45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL45" t="n">
         <v>34</v>
       </c>
-      <c r="AK45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>29</v>
-      </c>
       <c r="AM45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN45" t="n">
         <v>67</v>
@@ -6936,28 +6936,28 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L46" t="n">
         <v>2.75</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O46" t="n">
         <v>1.22</v>
@@ -6984,10 +6984,10 @@
         <v>3.25</v>
       </c>
       <c r="W46" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y46" t="n">
         <v>12</v>
@@ -6996,16 +6996,16 @@
         <v>17</v>
       </c>
       <c r="AA46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB46" t="n">
         <v>29</v>
       </c>
       <c r="AC46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE46" t="n">
         <v>13</v>
@@ -7014,16 +7014,16 @@
         <v>7</v>
       </c>
       <c r="AG46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH46" t="n">
         <v>41</v>
       </c>
       <c r="AI46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK46" t="n">
         <v>12</v>
@@ -7077,16 +7077,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J47" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K47" t="n">
         <v>2.1</v>
@@ -7125,10 +7125,10 @@
         <v>2.75</v>
       </c>
       <c r="W47" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X47" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -7149,7 +7149,7 @@
         <v>29</v>
       </c>
       <c r="AE47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF47" t="n">
         <v>7</v>
@@ -7164,13 +7164,13 @@
         <v>700</v>
       </c>
       <c r="AJ47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK47" t="n">
         <v>23</v>
       </c>
       <c r="AL47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM47" t="n">
         <v>51</v>
@@ -7466,10 +7466,10 @@
       <c r="AP49" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
       <c r="AR49" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="50">
@@ -7504,109 +7504,109 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
         <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="K50" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L50" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O50" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P50" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R50" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="S50" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="T50" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="U50" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V50" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="W50" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X50" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="Y50" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="Z50" t="n">
-        <v>13.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA50" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB50" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AC50" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE50" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF50" t="n">
         <v>6.9</v>
       </c>
       <c r="AG50" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ50" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK50" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AL50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM50" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AN50" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AO50" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
@@ -7645,109 +7645,109 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="H51" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I51" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="J51" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K51" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L51" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="O51" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="P51" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="R51" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="S51" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="T51" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="U51" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="V51" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="W51" t="n">
         <v>1.65</v>
       </c>
       <c r="X51" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Y51" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA51" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC51" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD51" t="n">
         <v>35</v>
       </c>
       <c r="AE51" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AF51" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AG51" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AN51" t="n">
         <v>13</v>
       </c>
-      <c r="AH51" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>14</v>
-      </c>
       <c r="AO51" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP51" t="inlineStr"/>
       <c r="AQ51" t="inlineStr"/>
@@ -7786,82 +7786,82 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="H52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L52" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.3</v>
       </c>
       <c r="M52" t="n">
         <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O52" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P52" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="Q52" t="n">
         <v>1.65</v>
       </c>
       <c r="R52" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S52" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="T52" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="U52" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="V52" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W52" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X52" t="n">
         <v>2.3</v>
       </c>
       <c r="Y52" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z52" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AA52" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB52" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC52" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD52" t="n">
         <v>22</v>
       </c>
       <c r="AE52" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF52" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AG52" t="n">
         <v>11.75</v>
@@ -7873,19 +7873,19 @@
         <v>250</v>
       </c>
       <c r="AJ52" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AK52" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AL52" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM52" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN52" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO52" t="n">
         <v>26</v>
@@ -8068,13 +8068,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I54" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J54" t="n">
         <v>2.75</v>
@@ -8083,13 +8083,13 @@
         <v>2.05</v>
       </c>
       <c r="L54" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M54" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O54" t="n">
         <v>1.4</v>
@@ -8098,10 +8098,10 @@
         <v>2.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R54" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S54" t="n">
         <v>4</v>
@@ -8125,7 +8125,7 @@
         <v>6.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA54" t="n">
         <v>9</v>
@@ -8134,7 +8134,7 @@
         <v>17</v>
       </c>
       <c r="AC54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD54" t="n">
         <v>34</v>
@@ -8149,7 +8149,7 @@
         <v>17</v>
       </c>
       <c r="AH54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI54" t="n">
         <v>351</v>
@@ -8158,7 +8158,7 @@
         <v>9.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL54" t="n">
         <v>13</v>
@@ -8233,16 +8233,16 @@
         <v>9</v>
       </c>
       <c r="O55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R55" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S55" t="n">
         <v>3.75</v>
@@ -8350,88 +8350,88 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H56" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I56" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J56" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K56" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L56" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O56" t="n">
         <v>1.22</v>
       </c>
       <c r="P56" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q56" t="n">
         <v>1.65</v>
       </c>
       <c r="R56" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S56" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="T56" t="n">
         <v>1.45</v>
       </c>
       <c r="U56" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="V56" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W56" t="n">
         <v>1.6</v>
       </c>
       <c r="X56" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Y56" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z56" t="n">
         <v>21</v>
       </c>
       <c r="AA56" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB56" t="n">
         <v>50</v>
       </c>
       <c r="AC56" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD56" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE56" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF56" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AG56" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH56" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI56" t="n">
         <v>300</v>
@@ -8440,16 +8440,16 @@
         <v>9</v>
       </c>
       <c r="AK56" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AL56" t="n">
         <v>8.25</v>
       </c>
       <c r="AM56" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AN56" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO56" t="n">
         <v>21</v>
@@ -8635,16 +8635,16 @@
         <v>1.42</v>
       </c>
       <c r="H58" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="I58" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="K58" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="L58" t="n">
         <v>5.8</v>
@@ -8653,61 +8653,61 @@
         <v>1.03</v>
       </c>
       <c r="N58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="V58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF58" t="n">
         <v>9.25</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R58" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V58" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W58" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X58" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>9</v>
       </c>
       <c r="AG58" t="n">
         <v>15</v>
@@ -8914,10 +8914,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H60" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I60" t="n">
         <v>3.35</v>
@@ -8926,58 +8926,58 @@
         <v>2.92</v>
       </c>
       <c r="K60" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="M60" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N60" t="n">
         <v>6.4</v>
       </c>
       <c r="O60" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P60" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="R60" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S60" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="T60" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="U60" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V60" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X60" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Y60" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z60" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA60" t="n">
         <v>9.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC60" t="n">
         <v>22</v>
@@ -8986,25 +8986,25 @@
         <v>40</v>
       </c>
       <c r="AE60" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AF60" t="n">
         <v>5.8</v>
       </c>
       <c r="AG60" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH60" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI60" t="n">
         <v>101</v>
       </c>
       <c r="AJ60" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AK60" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL60" t="n">
         <v>12.5</v>
@@ -9013,10 +9013,10 @@
         <v>50</v>
       </c>
       <c r="AN60" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO60" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
@@ -749,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -791,7 +791,7 @@
         <v>15</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
@@ -863,16 +863,16 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R3" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U3" t="n">
         <v>1.36</v>
@@ -1004,16 +1004,16 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U4" t="n">
         <v>1.36</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1169,10 +1169,10 @@
         <v>2</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
         <v>8.5</v>
@@ -1190,13 +1190,13 @@
         <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
         <v>201</v>
@@ -1211,7 +1211,7 @@
         <v>15</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>34</v>
@@ -1260,22 +1260,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1314,10 +1314,10 @@
         <v>1.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>12</v>
@@ -1335,7 +1335,7 @@
         <v>6.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG6" t="n">
         <v>17</v>
@@ -1344,19 +1344,19 @@
         <v>67</v>
       </c>
       <c r="AI6" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ6" t="n">
         <v>6.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN6" t="n">
         <v>23</v>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="H8" t="n">
         <v>3.55</v>
@@ -1559,7 +1559,7 @@
         <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="K8" t="n">
         <v>2.12</v>
@@ -1570,16 +1570,16 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q8" t="n">
         <v>1.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S8" t="n">
         <v>2.9</v>
@@ -1600,10 +1600,10 @@
         <v>1.83</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
@@ -1615,40 +1615,40 @@
         <v>45</v>
       </c>
       <c r="AD8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AG8" t="n">
         <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="n">
         <v>600</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AK8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AN8" t="n">
         <v>13.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1687,42 +1687,42 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>4.05</v>
+        <v>4.85</v>
       </c>
       <c r="J9" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="K9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="U9" t="n">
         <v>1.39</v>
@@ -1731,61 +1731,61 @@
         <v>2.57</v>
       </c>
       <c r="W9" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="X9" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD9" t="n">
         <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
         <v>90</v>
       </c>
       <c r="AI9" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM9" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AO9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1995,10 +1995,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S11" t="n">
         <v>2.75</v>
@@ -2106,16 +2106,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>1.91</v>
@@ -2124,10 +2124,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.53</v>
@@ -2163,7 +2163,7 @@
         <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA12" t="n">
         <v>11</v>
@@ -2172,7 +2172,7 @@
         <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD12" t="n">
         <v>41</v>
@@ -2193,19 +2193,19 @@
         <v>101</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL12" t="n">
         <v>13</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>12</v>
       </c>
       <c r="AM12" t="n">
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
         <v>41</v>
@@ -2217,10 +2217,10 @@
         <v>1.2</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13">
@@ -2255,28 +2255,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
         <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
@@ -2285,10 +2285,10 @@
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -2297,10 +2297,10 @@
         <v>1.22</v>
       </c>
       <c r="U13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W13" t="n">
         <v>2</v>
@@ -2312,13 +2312,13 @@
         <v>6.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
         <v>9</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="n">
         <v>17</v>
@@ -2336,19 +2336,19 @@
         <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI13" t="n">
         <v>351</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM13" t="n">
         <v>41</v>
@@ -2396,52 +2396,52 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="H14" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="K14" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="L14" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>1.17</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.65</v>
       </c>
       <c r="P14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T14" t="n">
         <v>1.12</v>
       </c>
       <c r="U14" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W14" t="n">
         <v>2.25</v>
@@ -2450,31 +2450,31 @@
         <v>1.57</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AA14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AD14" t="n">
         <v>50</v>
       </c>
       <c r="AE14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH14" t="n">
         <v>150</v>
@@ -2483,22 +2483,22 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AK14" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO14" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2537,28 +2537,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.67</v>
+        <v>2.95</v>
       </c>
       <c r="H15" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="I15" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
         <v>1.72</v>
       </c>
       <c r="L15" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="M15" t="n">
         <v>1.18</v>
       </c>
       <c r="N15" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="O15" t="n">
         <v>1.7</v>
@@ -2582,40 +2582,40 @@
         <v>1.7</v>
       </c>
       <c r="V15" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Z15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA15" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA15" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AB15" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC15" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AD15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
         <v>150</v>
@@ -2624,22 +2624,22 @@
         <v>101</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM15" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN15" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
@@ -2849,10 +2849,10 @@
         <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
         <v>4.5</v>
@@ -2861,10 +2861,10 @@
         <v>1.2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W17" t="n">
         <v>2</v>
@@ -2891,7 +2891,7 @@
         <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
@@ -2900,10 +2900,10 @@
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI17" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
@@ -2925,8 +2925,12 @@
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
+      <c r="AR17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2978,10 +2982,10 @@
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3116,7 +3120,7 @@
         <v>1.95</v>
       </c>
       <c r="L19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -3131,10 +3135,10 @@
         <v>2.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S19" t="n">
         <v>4.5</v>
@@ -3149,10 +3153,10 @@
         <v>2.38</v>
       </c>
       <c r="W19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X19" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y19" t="n">
         <v>7.5</v>
@@ -3164,7 +3168,7 @@
         <v>12</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
         <v>29</v>
@@ -3185,7 +3189,7 @@
         <v>67</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AJ19" t="n">
         <v>6.5</v>
@@ -3267,7 +3271,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -3391,46 +3395,46 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>2.38</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U21" t="n">
         <v>1.36</v>
@@ -3439,28 +3443,28 @@
         <v>3</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X21" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA21" t="n">
         <v>8.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC21" t="n">
         <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
         <v>11</v>
@@ -3472,19 +3476,19 @@
         <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>81</v>
@@ -3532,16 +3536,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
@@ -3562,16 +3566,16 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R22" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U22" t="n">
         <v>1.4</v>
@@ -3595,13 +3599,13 @@
         <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
         <v>23</v>
       </c>
       <c r="AD22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE22" t="n">
         <v>11</v>
@@ -3622,13 +3626,13 @@
         <v>8.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL22" t="n">
         <v>9.5</v>
       </c>
       <c r="AM22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN22" t="n">
         <v>19</v>
@@ -3673,22 +3677,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H23" t="n">
         <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3703,49 +3707,49 @@
         <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V23" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X23" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA23" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA23" t="n">
-        <v>9</v>
-      </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="n">
         <v>29</v>
       </c>
       <c r="AE23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF23" t="n">
         <v>6.5</v>
@@ -3763,19 +3767,19 @@
         <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO23" t="n">
         <v>34</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>41</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3814,22 +3818,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K24" t="n">
         <v>2.4</v>
       </c>
       <c r="L24" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3838,22 +3842,22 @@
         <v>17</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.53</v>
       </c>
       <c r="U24" t="n">
         <v>1.29</v>
@@ -3880,10 +3884,10 @@
         <v>19</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -3907,22 +3911,22 @@
         <v>21</v>
       </c>
       <c r="AL24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM24" t="n">
         <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO24" t="n">
         <v>26</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -3983,16 +3987,16 @@
         <v>15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S25" t="n">
         <v>2.5</v>
@@ -4064,10 +4068,10 @@
         <v>23</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
@@ -4134,16 +4138,16 @@
         <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U26" t="n">
         <v>1.36</v>
@@ -4275,10 +4279,10 @@
         <v>4.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S27" t="n">
         <v>2.5</v>
@@ -4350,10 +4354,10 @@
         <v>34</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4682,10 +4686,10 @@
         <v>3.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O30" t="n">
         <v>1.36</v>
@@ -4694,10 +4698,10 @@
         <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R30" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S30" t="n">
         <v>4</v>
@@ -5244,22 +5248,22 @@
         <v>17</v>
       </c>
       <c r="O34" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R34" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U34" t="n">
         <v>1.29</v>
@@ -5325,10 +5329,10 @@
         <v>19</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5365,19 +5369,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H35" t="n">
         <v>4.33</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J35" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K35" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L35" t="n">
         <v>4.75</v>
@@ -5422,7 +5426,7 @@
         <v>9.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA35" t="n">
         <v>8.5</v>
@@ -5452,7 +5456,7 @@
         <v>151</v>
       </c>
       <c r="AJ35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK35" t="n">
         <v>26</v>
@@ -5464,16 +5468,16 @@
         <v>51</v>
       </c>
       <c r="AN35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO35" t="n">
         <v>34</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5510,22 +5514,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H36" t="n">
         <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K36" t="n">
         <v>2.5</v>
       </c>
       <c r="L36" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
@@ -5570,16 +5574,16 @@
         <v>17</v>
       </c>
       <c r="AA36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC36" t="n">
         <v>17</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE36" t="n">
         <v>21</v>
@@ -5603,16 +5607,16 @@
         <v>17</v>
       </c>
       <c r="AL36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN36" t="n">
         <v>17</v>
       </c>
       <c r="AO36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP36" t="n">
         <v>1.8</v>
@@ -5685,10 +5689,10 @@
         <v>7</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R37" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S37" t="n">
         <v>1.83</v>
@@ -5820,22 +5824,22 @@
         <v>13</v>
       </c>
       <c r="O38" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R38" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S38" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T38" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U38" t="n">
         <v>1.33</v>
@@ -5943,16 +5947,16 @@
         <v>4.5</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J39" t="n">
         <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -5991,7 +5995,7 @@
         <v>2</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z39" t="n">
         <v>8</v>
@@ -6003,7 +6007,7 @@
         <v>11</v>
       </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD39" t="n">
         <v>21</v>
@@ -6024,13 +6028,13 @@
         <v>201</v>
       </c>
       <c r="AJ39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM39" t="n">
         <v>67</v>
@@ -6042,10 +6046,10 @@
         <v>41</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6227,7 +6231,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>3</v>
@@ -6236,7 +6240,7 @@
         <v>3.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
         <v>2</v>
@@ -6248,13 +6252,13 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q41" t="n">
         <v>2.25</v>
@@ -6269,10 +6273,10 @@
         <v>1.22</v>
       </c>
       <c r="U41" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V41" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W41" t="n">
         <v>1.91</v>
@@ -6299,7 +6303,7 @@
         <v>34</v>
       </c>
       <c r="AE41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF41" t="n">
         <v>6</v>
@@ -6314,7 +6318,7 @@
         <v>351</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK41" t="n">
         <v>15</v>
@@ -6372,45 +6376,49 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="H42" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I42" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="J42" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="K42" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L42" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+        <v>1.72</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N42" t="n">
+        <v>10</v>
+      </c>
       <c r="O42" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P42" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="S42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T42" t="n">
         <v>1.82</v>
       </c>
-      <c r="T42" t="n">
-        <v>1.88</v>
-      </c>
       <c r="U42" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="V42" t="n">
         <v>4</v>
@@ -6422,31 +6430,31 @@
         <v>2.2</v>
       </c>
       <c r="Y42" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z42" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA42" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB42" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AC42" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AD42" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE42" t="n">
-        <v>26</v>
+        <v>10.25</v>
       </c>
       <c r="AF42" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AG42" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH42" t="n">
         <v>50</v>
@@ -6455,19 +6463,19 @@
         <v>250</v>
       </c>
       <c r="AJ42" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AK42" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AL42" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AM42" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AN42" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AO42" t="n">
         <v>18.5</v>
@@ -6509,22 +6517,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="I43" t="n">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="J43" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="K43" t="n">
         <v>2.52</v>
       </c>
       <c r="L43" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="M43" t="n">
         <v>1.02</v>
@@ -6536,7 +6544,7 @@
         <v>1.13</v>
       </c>
       <c r="P43" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
         <v>1.42</v>
@@ -6551,10 +6559,10 @@
         <v>1.7</v>
       </c>
       <c r="U43" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="V43" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="W43" t="n">
         <v>1.47</v>
@@ -6563,19 +6571,19 @@
         <v>2.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Z43" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA43" t="n">
         <v>8.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD43" t="n">
         <v>17.5</v>
@@ -6584,34 +6592,34 @@
         <v>10</v>
       </c>
       <c r="AF43" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH43" t="n">
         <v>37</v>
       </c>
       <c r="AI43" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AJ43" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK43" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN43" t="n">
         <v>29</v>
       </c>
-      <c r="AL43" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>32</v>
-      </c>
       <c r="AO43" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -6650,22 +6658,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K44" t="n">
         <v>1.91</v>
       </c>
       <c r="L44" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M44" t="n">
         <v>1.1</v>
@@ -6674,16 +6682,16 @@
         <v>6.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P44" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S44" t="n">
         <v>4.5</v>
@@ -6692,10 +6700,10 @@
         <v>1.17</v>
       </c>
       <c r="U44" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V44" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W44" t="n">
         <v>2.1</v>
@@ -6704,16 +6712,16 @@
         <v>1.67</v>
       </c>
       <c r="Y44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC44" t="n">
         <v>23</v>
@@ -6722,7 +6730,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF44" t="n">
         <v>6</v>
@@ -6740,13 +6748,13 @@
         <v>7.5</v>
       </c>
       <c r="AK44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL44" t="n">
         <v>13</v>
       </c>
-      <c r="AL44" t="n">
-        <v>12</v>
-      </c>
       <c r="AM44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN44" t="n">
         <v>29</v>
@@ -6757,10 +6765,10 @@
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="45">
@@ -6795,46 +6803,46 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="H45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I45" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J45" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K45" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M45" t="n">
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="O45" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="R45" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="S45" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T45" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="U45" t="n">
         <v>1.17</v>
@@ -6852,7 +6860,7 @@
         <v>13</v>
       </c>
       <c r="Z45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA45" t="n">
         <v>11</v>
@@ -6867,13 +6875,13 @@
         <v>23</v>
       </c>
       <c r="AE45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF45" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH45" t="n">
         <v>51</v>
@@ -6882,19 +6890,19 @@
         <v>151</v>
       </c>
       <c r="AJ45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO45" t="n">
         <v>51</v>
@@ -6936,10 +6944,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I46" t="n">
         <v>2.2</v>
@@ -6948,34 +6956,34 @@
         <v>3.4</v>
       </c>
       <c r="K46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L46" t="n">
         <v>2.75</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R46" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S46" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T46" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U46" t="n">
         <v>1.33</v>
@@ -6984,10 +6992,10 @@
         <v>3.25</v>
       </c>
       <c r="W46" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y46" t="n">
         <v>12</v>
@@ -6996,34 +7004,34 @@
         <v>17</v>
       </c>
       <c r="AA46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB46" t="n">
         <v>29</v>
       </c>
       <c r="AC46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF46" t="n">
         <v>7</v>
       </c>
       <c r="AG46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH46" t="n">
         <v>41</v>
       </c>
       <c r="AI46" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK46" t="n">
         <v>12</v>
@@ -7218,7 +7226,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="H48" t="n">
         <v>3.45</v>
@@ -7227,37 +7235,37 @@
         <v>1.72</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K48" t="n">
         <v>2.07</v>
       </c>
       <c r="L48" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="O48" t="n">
         <v>1.39</v>
       </c>
       <c r="P48" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R48" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S48" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T48" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U48" t="n">
         <v>1.47</v>
@@ -7275,28 +7283,28 @@
         <v>11</v>
       </c>
       <c r="Z48" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA48" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB48" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AC48" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD48" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE48" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AF48" t="n">
         <v>6.7</v>
       </c>
       <c r="AG48" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH48" t="n">
         <v>110</v>
@@ -7305,10 +7313,10 @@
         <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AK48" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AL48" t="n">
         <v>8.5</v>
@@ -7389,10 +7397,10 @@
         <v>2.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R49" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -7466,10 +7474,10 @@
       <c r="AP49" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
       <c r="AR49" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="50">
@@ -7507,19 +7515,19 @@
         <v>2.1</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I50" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J50" t="n">
         <v>2.67</v>
       </c>
       <c r="K50" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L50" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M50" t="n">
         <v>1.05</v>
@@ -7537,13 +7545,13 @@
         <v>1.72</v>
       </c>
       <c r="R50" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="T50" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="U50" t="n">
         <v>1.36</v>
@@ -7552,19 +7560,19 @@
         <v>2.87</v>
       </c>
       <c r="W50" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X50" t="n">
         <v>2.18</v>
       </c>
       <c r="Y50" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z50" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AA50" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB50" t="n">
         <v>20</v>
@@ -7579,34 +7587,34 @@
         <v>8</v>
       </c>
       <c r="AF50" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AG50" t="n">
         <v>12.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="n">
         <v>300</v>
       </c>
       <c r="AJ50" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AL50" t="n">
         <v>11</v>
       </c>
       <c r="AM50" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN50" t="n">
         <v>25</v>
       </c>
       <c r="AO50" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
@@ -7786,34 +7794,34 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="H52" t="n">
         <v>3.5</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="K52" t="n">
         <v>2.22</v>
       </c>
       <c r="L52" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="M52" t="n">
         <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O52" t="n">
         <v>1.21</v>
       </c>
       <c r="P52" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="Q52" t="n">
         <v>1.65</v>
@@ -7840,7 +7848,7 @@
         <v>2.3</v>
       </c>
       <c r="Y52" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z52" t="n">
         <v>12</v>
@@ -7849,19 +7857,19 @@
         <v>8.75</v>
       </c>
       <c r="AB52" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC52" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD52" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE52" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF52" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AG52" t="n">
         <v>11.75</v>
@@ -7873,22 +7881,22 @@
         <v>250</v>
       </c>
       <c r="AJ52" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK52" t="n">
         <v>18</v>
       </c>
       <c r="AL52" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AM52" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO52" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP52" t="inlineStr"/>
       <c r="AQ52" t="inlineStr"/>
@@ -8068,28 +8076,28 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I54" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J54" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K54" t="n">
         <v>2.05</v>
       </c>
       <c r="L54" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O54" t="n">
         <v>1.4</v>
@@ -8122,19 +8130,19 @@
         <v>1.73</v>
       </c>
       <c r="Y54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA54" t="n">
         <v>9</v>
       </c>
       <c r="AB54" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC54" t="n">
         <v>17</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>19</v>
       </c>
       <c r="AD54" t="n">
         <v>34</v>
@@ -8146,10 +8154,10 @@
         <v>6.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI54" t="n">
         <v>351</v>
@@ -8158,10 +8166,10 @@
         <v>9.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM54" t="n">
         <v>41</v>
@@ -8209,16 +8217,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H55" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J55" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.25</v>
       </c>
       <c r="K55" t="n">
         <v>2.05</v>
@@ -8227,10 +8235,10 @@
         <v>3.6</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O55" t="n">
         <v>1.33</v>
@@ -8239,16 +8247,16 @@
         <v>3.25</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R55" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S55" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T55" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U55" t="n">
         <v>1.44</v>
@@ -8266,7 +8274,7 @@
         <v>7.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA55" t="n">
         <v>10</v>
@@ -8278,10 +8286,10 @@
         <v>21</v>
       </c>
       <c r="AD55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF55" t="n">
         <v>6</v>
@@ -8293,13 +8301,13 @@
         <v>51</v>
       </c>
       <c r="AI55" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL55" t="n">
         <v>11</v>
@@ -8350,31 +8358,31 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H56" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I56" t="n">
         <v>1.85</v>
       </c>
       <c r="J56" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="K56" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L56" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O56" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P56" t="n">
         <v>3.9</v>
@@ -8386,10 +8394,10 @@
         <v>2.12</v>
       </c>
       <c r="S56" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="T56" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="U56" t="n">
         <v>1.33</v>
@@ -8401,43 +8409,43 @@
         <v>1.6</v>
       </c>
       <c r="X56" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Y56" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA56" t="n">
         <v>12.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC56" t="n">
         <v>30</v>
       </c>
       <c r="AD56" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE56" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF56" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG56" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI56" t="n">
         <v>300</v>
       </c>
       <c r="AJ56" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK56" t="n">
         <v>10</v>
@@ -8638,16 +8646,16 @@
         <v>4.5</v>
       </c>
       <c r="I58" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="J58" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="K58" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="L58" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M58" t="n">
         <v>1.03</v>
@@ -8656,58 +8664,58 @@
         <v>9.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P58" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="Q58" t="n">
         <v>1.45</v>
       </c>
       <c r="R58" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="S58" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T58" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="U58" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="V58" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="W58" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X58" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Y58" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z58" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AA58" t="n">
         <v>8.25</v>
       </c>
       <c r="AB58" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC58" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE58" t="n">
         <v>9.5</v>
       </c>
       <c r="AF58" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG58" t="n">
         <v>15</v>
@@ -8719,19 +8727,19 @@
         <v>300</v>
       </c>
       <c r="AJ58" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK58" t="n">
         <v>50</v>
       </c>
       <c r="AL58" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AM58" t="n">
         <v>150</v>
       </c>
       <c r="AN58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO58" t="n">
         <v>45</v>
@@ -8773,13 +8781,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="H59" t="n">
         <v>5.7</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="J59" t="n">
         <v>1.65</v>
@@ -8788,7 +8796,7 @@
         <v>2.8</v>
       </c>
       <c r="L59" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="M59" t="n">
         <v>1.02</v>
@@ -8800,16 +8808,16 @@
         <v>1.12</v>
       </c>
       <c r="P59" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="R59" t="n">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="S59" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T59" t="n">
         <v>1.75</v>
@@ -8839,7 +8847,7 @@
         <v>8.5</v>
       </c>
       <c r="AC59" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD59" t="n">
         <v>22</v>
@@ -8860,22 +8868,22 @@
         <v>450</v>
       </c>
       <c r="AJ59" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL59" t="n">
         <v>32</v>
       </c>
-      <c r="AK59" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>28</v>
-      </c>
       <c r="AM59" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AN59" t="n">
         <v>90</v>
       </c>
       <c r="AO59" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
@@ -8917,7 +8925,7 @@
         <v>2.25</v>
       </c>
       <c r="H60" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I60" t="n">
         <v>3.35</v>
@@ -8959,34 +8967,34 @@
         <v>1.53</v>
       </c>
       <c r="V60" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W60" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="X60" t="n">
         <v>1.62</v>
       </c>
       <c r="Y60" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z60" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA60" t="n">
         <v>9.5</v>
       </c>
       <c r="AB60" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC60" t="n">
         <v>23</v>
       </c>
-      <c r="AC60" t="n">
-        <v>22</v>
-      </c>
       <c r="AD60" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE60" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AF60" t="n">
         <v>5.8</v>
@@ -9001,10 +9009,10 @@
         <v>101</v>
       </c>
       <c r="AJ60" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AK60" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL60" t="n">
         <v>12.5</v>
@@ -9016,7 +9024,7 @@
         <v>40</v>
       </c>
       <c r="AO60" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
@@ -749,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -791,7 +791,7 @@
         <v>15</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
@@ -842,13 +842,13 @@
         <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -863,10 +863,10 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="S3" t="n">
         <v>3.2</v>
@@ -893,7 +893,7 @@
         <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -911,7 +911,7 @@
         <v>6.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -926,7 +926,7 @@
         <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
@@ -980,7 +980,7 @@
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -1004,10 +1004,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
         <v>3</v>
@@ -1028,7 +1028,7 @@
         <v>2.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
@@ -1037,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>17</v>
@@ -1046,13 +1046,13 @@
         <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>6.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1070,13 +1070,13 @@
         <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
         <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -1133,10 +1133,10 @@
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1145,10 +1145,10 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
@@ -1275,7 +1275,7 @@
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1335,7 +1335,7 @@
         <v>6.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG6" t="n">
         <v>17</v>
@@ -1696,10 +1696,10 @@
         <v>4.85</v>
       </c>
       <c r="J9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.15</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.2</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
@@ -1710,10 +1710,10 @@
         <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
         <v>1.75</v>
@@ -1728,7 +1728,7 @@
         <v>1.39</v>
       </c>
       <c r="V9" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="W9" t="n">
         <v>1.88</v>
@@ -1737,7 +1737,7 @@
         <v>1.72</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z9" t="n">
         <v>7.1</v>
@@ -1746,16 +1746,16 @@
         <v>8.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC9" t="n">
         <v>13.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF9" t="n">
         <v>7.3</v>
@@ -1839,7 +1839,7 @@
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1848,22 +1848,22 @@
         <v>10</v>
       </c>
       <c r="O10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.29</v>
       </c>
       <c r="U10" t="n">
         <v>1.4</v>
@@ -1893,13 +1893,13 @@
         <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
         <v>10</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
@@ -1911,7 +1911,7 @@
         <v>201</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -1926,7 +1926,7 @@
         <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -1965,19 +1965,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
@@ -2007,25 +2007,25 @@
         <v>1.4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
@@ -2037,7 +2037,7 @@
         <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2052,10 +2052,10 @@
         <v>151</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>13</v>
@@ -2067,7 +2067,7 @@
         <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
@@ -2124,10 +2124,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
         <v>1.53</v>
@@ -2181,7 +2181,7 @@
         <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG12" t="n">
         <v>19</v>
@@ -2202,13 +2202,13 @@
         <v>13</v>
       </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
         <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP12" t="n">
         <v>4.4</v>
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
         <v>3.6</v>
@@ -2267,82 +2267,82 @@
         <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S13" t="n">
         <v>4.5</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X13" t="n">
         <v>1.67</v>
       </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.73</v>
-      </c>
       <c r="Y13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z13" t="n">
         <v>8.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB13" t="n">
         <v>17</v>
       </c>
       <c r="AC13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="n">
         <v>34</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF13" t="n">
         <v>6.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI13" t="n">
         <v>351</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK13" t="n">
         <v>19</v>
@@ -2361,8 +2361,12 @@
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
+      <c r="AR13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2678,22 +2682,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I16" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J16" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
         <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -2714,7 +2718,7 @@
         <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T16" t="n">
         <v>1.27</v>
@@ -2726,34 +2730,34 @@
         <v>2.72</v>
       </c>
       <c r="W16" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="Z16" t="n">
         <v>10.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC16" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE16" t="n">
         <v>6.4</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AG16" t="n">
         <v>13.5</v>
@@ -2765,22 +2769,22 @@
         <v>500</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK16" t="n">
         <v>18.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN16" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2831,7 +2835,7 @@
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L17" t="n">
         <v>4.33</v>
@@ -2849,10 +2853,10 @@
         <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S17" t="n">
         <v>4.5</v>
@@ -2873,7 +2877,7 @@
         <v>1.73</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z17" t="n">
         <v>9.5</v>
@@ -2906,7 +2910,7 @@
         <v>451</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK17" t="n">
         <v>17</v>
@@ -2926,10 +2930,10 @@
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="18">
@@ -2964,22 +2968,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
         <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -3006,10 +3010,10 @@
         <v>1.22</v>
       </c>
       <c r="U18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W18" t="n">
         <v>1.91</v>
@@ -3030,13 +3034,13 @@
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD18" t="n">
         <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
         <v>6.5</v>
@@ -3051,7 +3055,7 @@
         <v>351</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK18" t="n">
         <v>15</v>
@@ -3105,16 +3109,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
         <v>1.95</v>
@@ -3135,16 +3139,16 @@
         <v>2.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T19" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U19" t="n">
         <v>1.53</v>
@@ -3153,10 +3157,10 @@
         <v>2.38</v>
       </c>
       <c r="W19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y19" t="n">
         <v>7.5</v>
@@ -3165,19 +3169,19 @@
         <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB19" t="n">
         <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD19" t="n">
         <v>41</v>
       </c>
       <c r="AE19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF19" t="n">
         <v>6</v>
@@ -3189,10 +3193,10 @@
         <v>67</v>
       </c>
       <c r="AI19" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK19" t="n">
         <v>11</v>
@@ -3212,10 +3216,10 @@
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="20">
@@ -3268,13 +3272,13 @@
         <v>5.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
         <v>7.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P20" t="n">
         <v>2.75</v>
@@ -3289,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U20" t="n">
         <v>1.5</v>
@@ -3334,7 +3338,7 @@
         <v>67</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
@@ -3413,28 +3417,28 @@
         <v>6.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="n">
         <v>2.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U21" t="n">
         <v>1.36</v>
@@ -3536,31 +3540,31 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
         <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
         <v>3.5</v>
@@ -3575,7 +3579,7 @@
         <v>3.25</v>
       </c>
       <c r="T22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U22" t="n">
         <v>1.4</v>
@@ -3614,7 +3618,7 @@
         <v>6.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
         <v>41</v>
@@ -3623,19 +3627,19 @@
         <v>201</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK22" t="n">
         <v>11</v>
       </c>
       <c r="AL22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM22" t="n">
         <v>21</v>
       </c>
       <c r="AN22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO22" t="n">
         <v>26</v>
@@ -3677,13 +3681,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
         <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
         <v>2.88</v>
@@ -3692,31 +3696,31 @@
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
         <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
         <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U23" t="n">
         <v>1.4</v>
@@ -3731,19 +3735,19 @@
         <v>1.91</v>
       </c>
       <c r="Y23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB23" t="n">
         <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD23" t="n">
         <v>29</v>
@@ -3818,13 +3822,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
         <v>2.6</v>
@@ -3842,22 +3846,22 @@
         <v>17</v>
       </c>
       <c r="O24" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.57</v>
       </c>
       <c r="U24" t="n">
         <v>1.29</v>
@@ -3887,7 +3891,7 @@
         <v>15</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -3914,7 +3918,7 @@
         <v>12</v>
       </c>
       <c r="AM24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN24" t="n">
         <v>23</v>
@@ -3923,10 +3927,10 @@
         <v>26</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -3963,13 +3967,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J25" t="n">
         <v>2.88</v>
@@ -3978,7 +3982,7 @@
         <v>2.38</v>
       </c>
       <c r="L25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -3993,22 +3997,22 @@
         <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R25" t="n">
         <v>2.3</v>
       </c>
       <c r="S25" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W25" t="n">
         <v>1.5</v>
@@ -4020,10 +4024,10 @@
         <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB25" t="n">
         <v>23</v>
@@ -4035,7 +4039,7 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>7</v>
@@ -4062,16 +4066,16 @@
         <v>29</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
         <v>23</v>
       </c>
       <c r="AP25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
@@ -4138,10 +4142,10 @@
         <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S26" t="n">
         <v>3.25</v>
@@ -4668,22 +4672,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
@@ -4725,7 +4729,7 @@
         <v>7</v>
       </c>
       <c r="Z30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA30" t="n">
         <v>9.5</v>
@@ -4734,7 +4738,7 @@
         <v>21</v>
       </c>
       <c r="AC30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD30" t="n">
         <v>34</v>
@@ -4755,13 +4759,13 @@
         <v>301</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM30" t="n">
         <v>34</v>
@@ -4839,10 +4843,10 @@
         <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S31" t="n">
         <v>3.75</v>
@@ -5083,22 +5087,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="J33" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K33" t="n">
         <v>2.38</v>
       </c>
       <c r="L33" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -5107,22 +5111,22 @@
         <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R33" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S33" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U33" t="n">
         <v>1.3</v>
@@ -5131,25 +5135,25 @@
         <v>3.4</v>
       </c>
       <c r="W33" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="X33" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Y33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA33" t="n">
         <v>9</v>
       </c>
-      <c r="Z33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC33" t="n">
         <v>15</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>13</v>
       </c>
       <c r="AD33" t="n">
         <v>21</v>
@@ -5161,19 +5165,19 @@
         <v>7.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
         <v>41</v>
       </c>
       <c r="AI33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ33" t="n">
         <v>15</v>
       </c>
       <c r="AK33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL33" t="n">
         <v>13</v>
@@ -5182,13 +5186,17 @@
         <v>41</v>
       </c>
       <c r="AN33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO33" t="n">
         <v>29</v>
       </c>
-      <c r="AO33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
+      <c r="AP33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>1.85</v>
+      </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
     </row>
@@ -5224,7 +5232,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H34" t="n">
         <v>3.75</v>
@@ -5248,10 +5256,10 @@
         <v>17</v>
       </c>
       <c r="O34" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q34" t="n">
         <v>1.53</v>
@@ -5329,10 +5337,10 @@
         <v>19</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5369,22 +5377,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="J35" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K35" t="n">
         <v>2.4</v>
       </c>
       <c r="L35" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5417,25 +5425,25 @@
         <v>3.5</v>
       </c>
       <c r="W35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA35" t="n">
         <v>8.5</v>
       </c>
       <c r="AB35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC35" t="n">
         <v>13</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>12</v>
       </c>
       <c r="AD35" t="n">
         <v>21</v>
@@ -5444,40 +5452,40 @@
         <v>17</v>
       </c>
       <c r="AF35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
         <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ35" t="n">
         <v>15</v>
       </c>
       <c r="AK35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="n">
         <v>29</v>
       </c>
       <c r="AO35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5514,13 +5522,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H36" t="n">
         <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J36" t="n">
         <v>2.88</v>
@@ -5529,7 +5537,7 @@
         <v>2.5</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
@@ -5613,7 +5621,7 @@
         <v>29</v>
       </c>
       <c r="AN36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO36" t="n">
         <v>21</v>
@@ -5659,16 +5667,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H37" t="n">
         <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J37" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K37" t="n">
         <v>2.75</v>
@@ -5731,7 +5739,7 @@
         <v>19</v>
       </c>
       <c r="AE37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF37" t="n">
         <v>12</v>
@@ -5749,10 +5757,10 @@
         <v>23</v>
       </c>
       <c r="AK37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM37" t="n">
         <v>67</v>
@@ -5848,10 +5856,10 @@
         <v>3.25</v>
       </c>
       <c r="W38" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X38" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y38" t="n">
         <v>9.5</v>
@@ -5941,22 +5949,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H39" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I39" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J39" t="n">
         <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -6001,13 +6009,13 @@
         <v>8</v>
       </c>
       <c r="AA39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB39" t="n">
         <v>11</v>
       </c>
       <c r="AC39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD39" t="n">
         <v>21</v>
@@ -6016,7 +6024,7 @@
         <v>15</v>
       </c>
       <c r="AF39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG39" t="n">
         <v>17</v>
@@ -6028,13 +6036,13 @@
         <v>201</v>
       </c>
       <c r="AJ39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM39" t="n">
         <v>67</v>
@@ -6046,10 +6054,10 @@
         <v>41</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6086,58 +6094,58 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H40" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J40" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L40" t="n">
         <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P40" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="R40" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="T40" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U40" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V40" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W40" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Y40" t="n">
         <v>8.5</v>
@@ -6152,13 +6160,13 @@
         <v>41</v>
       </c>
       <c r="AC40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD40" t="n">
         <v>41</v>
       </c>
       <c r="AE40" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF40" t="n">
         <v>6</v>
@@ -6167,19 +6175,19 @@
         <v>17</v>
       </c>
       <c r="AH40" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI40" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AJ40" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL40" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>10</v>
       </c>
       <c r="AM40" t="n">
         <v>21</v>
@@ -6188,15 +6196,15 @@
         <v>21</v>
       </c>
       <c r="AO40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="41">
@@ -6231,16 +6239,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I41" t="n">
         <v>3.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
         <v>2</v>
@@ -6252,13 +6260,13 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O41" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P41" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
         <v>2.25</v>
@@ -6303,7 +6311,7 @@
         <v>34</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF41" t="n">
         <v>6</v>
@@ -6330,7 +6338,7 @@
         <v>34</v>
       </c>
       <c r="AN41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO41" t="n">
         <v>41</v>
@@ -6517,109 +6525,109 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H43" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="I43" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="J43" t="n">
-        <v>2.18</v>
+        <v>2.37</v>
       </c>
       <c r="K43" t="n">
-        <v>2.52</v>
+        <v>2.27</v>
       </c>
       <c r="L43" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="O43" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="R43" t="n">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="S43" t="n">
-        <v>2.02</v>
+        <v>2.42</v>
       </c>
       <c r="T43" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="U43" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="V43" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="W43" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="X43" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="Y43" t="n">
-        <v>11.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AD43" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AE43" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AF43" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AG43" t="n">
         <v>12.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AJ43" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AK43" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL43" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AM43" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN43" t="n">
         <v>29</v>
       </c>
       <c r="AO43" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -6803,13 +6811,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J45" t="n">
         <v>1.5</v>
@@ -6818,7 +6826,7 @@
         <v>3.1</v>
       </c>
       <c r="L45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M45" t="n">
         <v>1.01</v>
@@ -6833,10 +6841,10 @@
         <v>7</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R45" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S45" t="n">
         <v>1.73</v>
@@ -6845,28 +6853,28 @@
         <v>2</v>
       </c>
       <c r="U45" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="V45" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="W45" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X45" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC45" t="n">
         <v>11</v>
@@ -6878,10 +6886,10 @@
         <v>29</v>
       </c>
       <c r="AF45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH45" t="n">
         <v>51</v>
@@ -6902,7 +6910,7 @@
         <v>126</v>
       </c>
       <c r="AN45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO45" t="n">
         <v>51</v>
@@ -6944,109 +6952,109 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H46" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I46" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K46" t="n">
         <v>2.2</v>
       </c>
-      <c r="J46" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L46" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O46" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3</v>
+      </c>
+      <c r="W46" t="n">
         <v>1.67</v>
       </c>
-      <c r="R46" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.57</v>
-      </c>
       <c r="X46" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y46" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA46" t="n">
         <v>11</v>
       </c>
       <c r="AB46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC46" t="n">
         <v>21</v>
       </c>
       <c r="AD46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE46" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH46" t="n">
         <v>41</v>
       </c>
       <c r="AI46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL46" t="n">
         <v>10</v>
       </c>
-      <c r="AK46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AM46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
@@ -7226,7 +7234,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="H48" t="n">
         <v>3.45</v>
@@ -7238,34 +7246,34 @@
         <v>5.1</v>
       </c>
       <c r="K48" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L48" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="O48" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P48" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R48" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S48" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T48" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="U48" t="n">
         <v>1.47</v>
@@ -7274,22 +7282,22 @@
         <v>2.5</v>
       </c>
       <c r="W48" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="X48" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Y48" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA48" t="n">
         <v>16</v>
       </c>
       <c r="AB48" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AC48" t="n">
         <v>55</v>
@@ -7298,16 +7306,16 @@
         <v>65</v>
       </c>
       <c r="AE48" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AF48" t="n">
         <v>6.7</v>
       </c>
       <c r="AG48" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI48" t="n">
         <v>1000</v>
@@ -7316,7 +7324,7 @@
         <v>5.6</v>
       </c>
       <c r="AK48" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AL48" t="n">
         <v>8.5</v>
@@ -7367,13 +7375,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H49" t="n">
         <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J49" t="n">
         <v>3.75</v>
@@ -7382,7 +7390,7 @@
         <v>1.91</v>
       </c>
       <c r="L49" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M49" t="n">
         <v>1.1</v>
@@ -7391,22 +7399,22 @@
         <v>7</v>
       </c>
       <c r="O49" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R49" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T49" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U49" t="n">
         <v>1.57</v>
@@ -7421,7 +7429,7 @@
         <v>1.67</v>
       </c>
       <c r="Y49" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z49" t="n">
         <v>13</v>
@@ -7466,7 +7474,7 @@
         <v>26</v>
       </c>
       <c r="AN49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO49" t="n">
         <v>41</v>
@@ -7474,10 +7482,10 @@
       <c r="AP49" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
       <c r="AR49" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="50">
@@ -7512,19 +7520,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="H50" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
         <v>3.2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="K50" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L50" t="n">
         <v>3.65</v>
@@ -7536,37 +7544,37 @@
         <v>8</v>
       </c>
       <c r="O50" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P50" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S50" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="T50" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="U50" t="n">
         <v>1.36</v>
       </c>
       <c r="V50" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="W50" t="n">
         <v>1.6</v>
       </c>
       <c r="X50" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Y50" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z50" t="n">
         <v>11</v>
@@ -7581,19 +7589,19 @@
         <v>15.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE50" t="n">
         <v>8</v>
       </c>
       <c r="AF50" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AG50" t="n">
         <v>12.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="n">
         <v>300</v>
@@ -7608,7 +7616,7 @@
         <v>11</v>
       </c>
       <c r="AM50" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN50" t="n">
         <v>25</v>
@@ -7653,7 +7661,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="H51" t="n">
         <v>3.75</v>
@@ -7662,13 +7670,13 @@
         <v>1.75</v>
       </c>
       <c r="J51" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="K51" t="n">
         <v>2.25</v>
       </c>
       <c r="L51" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="M51" t="n">
         <v>1.04</v>
@@ -7677,16 +7685,16 @@
         <v>8.25</v>
       </c>
       <c r="O51" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P51" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R51" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S51" t="n">
         <v>2.6</v>
@@ -7704,13 +7712,13 @@
         <v>1.65</v>
       </c>
       <c r="X51" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Y51" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA51" t="n">
         <v>13.5</v>
@@ -7719,10 +7727,10 @@
         <v>65</v>
       </c>
       <c r="AC51" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD51" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE51" t="n">
         <v>8.25</v>
@@ -7731,10 +7739,10 @@
         <v>7.4</v>
       </c>
       <c r="AG51" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH51" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI51" t="n">
         <v>350</v>
@@ -7743,7 +7751,7 @@
         <v>8.25</v>
       </c>
       <c r="AK51" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AL51" t="n">
         <v>8</v>
@@ -7752,7 +7760,7 @@
         <v>14.5</v>
       </c>
       <c r="AN51" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO51" t="n">
         <v>22</v>
@@ -7875,7 +7883,7 @@
         <v>11.75</v>
       </c>
       <c r="AH52" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI52" t="n">
         <v>250</v>
@@ -7935,19 +7943,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I53" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J53" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K53" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L53" t="n">
         <v>4.33</v>
@@ -7965,22 +7973,22 @@
         <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R53" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S53" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T53" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U53" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V53" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W53" t="n">
         <v>1.67</v>
@@ -8001,13 +8009,13 @@
         <v>15</v>
       </c>
       <c r="AC53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD53" t="n">
         <v>23</v>
       </c>
       <c r="AE53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF53" t="n">
         <v>7</v>
@@ -8025,7 +8033,7 @@
         <v>13</v>
       </c>
       <c r="AK53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL53" t="n">
         <v>13</v>
@@ -8082,7 +8090,7 @@
         <v>3.3</v>
       </c>
       <c r="I54" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J54" t="n">
         <v>2.63</v>
@@ -8100,16 +8108,16 @@
         <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P54" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R54" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S54" t="n">
         <v>4</v>
@@ -8130,7 +8138,7 @@
         <v>1.73</v>
       </c>
       <c r="Y54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z54" t="n">
         <v>8.5</v>
@@ -8139,7 +8147,7 @@
         <v>9</v>
       </c>
       <c r="AB54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC54" t="n">
         <v>17</v>
@@ -8148,28 +8156,28 @@
         <v>34</v>
       </c>
       <c r="AE54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF54" t="n">
         <v>6.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI54" t="n">
         <v>351</v>
       </c>
       <c r="AJ54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK54" t="n">
         <v>19</v>
       </c>
       <c r="AL54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM54" t="n">
         <v>41</v>
@@ -8217,13 +8225,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H55" t="n">
         <v>3.2</v>
       </c>
       <c r="I55" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
         <v>3.1</v>
@@ -8232,31 +8240,31 @@
         <v>2.05</v>
       </c>
       <c r="L55" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O55" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P55" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R55" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S55" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T55" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U55" t="n">
         <v>1.44</v>
@@ -8277,7 +8285,7 @@
         <v>11</v>
       </c>
       <c r="AA55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB55" t="n">
         <v>23</v>
@@ -8286,10 +8294,10 @@
         <v>21</v>
       </c>
       <c r="AD55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF55" t="n">
         <v>6</v>
@@ -8301,10 +8309,10 @@
         <v>51</v>
       </c>
       <c r="AI55" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK55" t="n">
         <v>15</v>
@@ -8313,10 +8321,10 @@
         <v>11</v>
       </c>
       <c r="AM55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN55" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO55" t="n">
         <v>34</v>
@@ -8640,52 +8648,52 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H58" t="n">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="I58" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="J58" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="K58" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="L58" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M58" t="n">
         <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O58" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P58" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="R58" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="S58" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T58" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U58" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="V58" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="W58" t="n">
         <v>1.62</v>
@@ -8694,52 +8702,52 @@
         <v>2.18</v>
       </c>
       <c r="Y58" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="Z58" t="n">
         <v>8.25</v>
       </c>
       <c r="AA58" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AB58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC58" t="n">
         <v>10.75</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>10.5</v>
       </c>
       <c r="AD58" t="n">
         <v>19</v>
       </c>
       <c r="AE58" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF58" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH58" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AJ58" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK58" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL58" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AM58" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AN58" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO58" t="n">
         <v>45</v>
@@ -8781,22 +8789,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="H59" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I59" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="J59" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="K59" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L59" t="n">
-        <v>7.8</v>
+        <v>9.25</v>
       </c>
       <c r="M59" t="n">
         <v>1.02</v>
@@ -8805,85 +8813,85 @@
         <v>10</v>
       </c>
       <c r="O59" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P59" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="R59" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="S59" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T59" t="n">
         <v>1.88</v>
       </c>
-      <c r="T59" t="n">
-        <v>1.75</v>
-      </c>
       <c r="U59" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="V59" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="W59" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="X59" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Y59" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="Z59" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA59" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AB59" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC59" t="n">
         <v>9.75</v>
       </c>
       <c r="AD59" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE59" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF59" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH59" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ59" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL59" t="n">
         <v>40</v>
       </c>
-      <c r="AK59" t="n">
+      <c r="AM59" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>175</v>
+      </c>
+      <c r="AO59" t="n">
         <v>100</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>75</v>
       </c>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
@@ -9063,85 +9071,85 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="H61" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I61" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="K61" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L61" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O61" t="n">
         <v>1.28</v>
       </c>
       <c r="P61" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R61" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S61" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="T61" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="U61" t="n">
         <v>1.4</v>
       </c>
       <c r="V61" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="W61" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="X61" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y61" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Z61" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AA61" t="n">
         <v>8.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AC61" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AD61" t="n">
         <v>25</v>
       </c>
       <c r="AE61" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AF61" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AG61" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH61" t="n">
         <v>55</v>
@@ -9150,22 +9158,22 @@
         <v>400</v>
       </c>
       <c r="AJ61" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK61" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL61" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AM61" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN61" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO61" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -722,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -752,7 +752,7 @@
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -761,16 +761,16 @@
         <v>34</v>
       </c>
       <c r="AD2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -791,7 +791,7 @@
         <v>15</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -863,16 +863,16 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U3" t="n">
         <v>1.36</v>
@@ -881,10 +881,10 @@
         <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -902,10 +902,10 @@
         <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>6.5</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
@@ -992,43 +992,43 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.4</v>
       </c>
-      <c r="U4" t="n">
-        <v>1.36</v>
-      </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
@@ -1043,16 +1043,16 @@
         <v>17</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1061,10 +1061,10 @@
         <v>151</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1076,7 +1076,7 @@
         <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1169,10 +1169,10 @@
         <v>2</v>
       </c>
       <c r="Y5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
         <v>8.5</v>
@@ -1181,19 +1181,19 @@
         <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
         <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1211,7 +1211,7 @@
         <v>15</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>34</v>
@@ -1290,10 +1290,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1367,10 +1367,10 @@
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="7">
@@ -1824,28 +1824,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
         <v>1.29</v>
@@ -1854,16 +1854,16 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U10" t="n">
         <v>1.4</v>
@@ -1899,7 +1899,7 @@
         <v>10</v>
       </c>
       <c r="AF10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
@@ -1926,7 +1926,7 @@
         <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -1965,22 +1965,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2013,22 +2013,22 @@
         <v>3.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA11" t="n">
         <v>8.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
         <v>15</v>
@@ -2064,10 +2064,10 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2124,10 +2124,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.53</v>
@@ -2217,10 +2217,10 @@
         <v>1.2</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="13">
@@ -2682,34 +2682,34 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="K16" t="n">
         <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q16" t="n">
         <v>2.05</v>
@@ -2718,7 +2718,7 @@
         <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
         <v>1.27</v>
@@ -2730,34 +2730,34 @@
         <v>2.72</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X16" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD16" t="n">
         <v>29</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AG16" t="n">
         <v>13.5</v>
@@ -2769,19 +2769,19 @@
         <v>500</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK16" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AM16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO16" t="n">
         <v>37</v>
@@ -2829,7 +2829,7 @@
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
@@ -2853,10 +2853,10 @@
         <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
         <v>4.5</v>
@@ -2930,10 +2930,10 @@
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="18">
@@ -2968,22 +2968,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
         <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -2998,16 +2998,16 @@
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U18" t="n">
         <v>1.44</v>
@@ -3025,25 +3025,25 @@
         <v>7</v>
       </c>
       <c r="Z18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
         <v>9</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG18" t="n">
         <v>17</v>
@@ -3055,19 +3055,19 @@
         <v>351</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO18" t="n">
         <v>41</v>
@@ -3109,28 +3109,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
         <v>1.95</v>
       </c>
       <c r="L19" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -3163,19 +3163,19 @@
         <v>1.73</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
         <v>29</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>26</v>
       </c>
       <c r="AD19" t="n">
         <v>41</v>
@@ -3193,13 +3193,13 @@
         <v>67</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL19" t="n">
         <v>10</v>
@@ -3208,10 +3208,10 @@
         <v>23</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3254,82 +3254,82 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
         <v>5.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X20" t="n">
         <v>1.62</v>
       </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.67</v>
-      </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z20" t="n">
         <v>7.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
         <v>19</v>
@@ -3338,10 +3338,10 @@
         <v>67</v>
       </c>
       <c r="AI20" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
@@ -3361,10 +3361,10 @@
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -3399,46 +3399,46 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
         <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
         <v>2.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U21" t="n">
         <v>1.36</v>
@@ -3447,22 +3447,22 @@
         <v>3</v>
       </c>
       <c r="W21" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
       </c>
       <c r="Z21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA21" t="n">
         <v>8.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
         <v>12</v>
@@ -3471,37 +3471,37 @@
         <v>26</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF21" t="n">
         <v>8</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
         <v>51</v>
       </c>
       <c r="AI21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ21" t="n">
         <v>17</v>
       </c>
       <c r="AK21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN21" t="n">
         <v>41</v>
       </c>
-      <c r="AL21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>51</v>
-      </c>
       <c r="AO21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
@@ -3558,13 +3558,13 @@
         <v>2.88</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
         <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
         <v>3.5</v>
@@ -3579,7 +3579,7 @@
         <v>3.25</v>
       </c>
       <c r="T22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U22" t="n">
         <v>1.4</v>
@@ -3597,16 +3597,16 @@
         <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB22" t="n">
         <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD22" t="n">
         <v>34</v>
@@ -3618,7 +3618,7 @@
         <v>6.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
         <v>41</v>
@@ -3699,28 +3699,28 @@
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
         <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
         <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U23" t="n">
         <v>1.4</v>
@@ -3831,10 +3831,10 @@
         <v>3.3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L24" t="n">
         <v>3.6</v>
@@ -3852,16 +3852,16 @@
         <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R24" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S24" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U24" t="n">
         <v>1.29</v>
@@ -3885,7 +3885,7 @@
         <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC24" t="n">
         <v>15</v>
@@ -3912,7 +3912,7 @@
         <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
         <v>12</v>
@@ -3927,10 +3927,10 @@
         <v>26</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
         <v>2.3</v>
@@ -4142,16 +4142,16 @@
         <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R26" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U26" t="n">
         <v>1.36</v>
@@ -4672,19 +4672,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
         <v>4</v>
@@ -4693,7 +4693,7 @@
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.36</v>
@@ -4720,10 +4720,10 @@
         <v>2.5</v>
       </c>
       <c r="W30" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X30" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y30" t="n">
         <v>7</v>
@@ -4744,7 +4744,7 @@
         <v>34</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF30" t="n">
         <v>6</v>
@@ -4756,7 +4756,7 @@
         <v>51</v>
       </c>
       <c r="AI30" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ30" t="n">
         <v>9.5</v>
@@ -4768,7 +4768,7 @@
         <v>13</v>
       </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="n">
         <v>29</v>
@@ -4837,10 +4837,10 @@
         <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="n">
         <v>2.1</v>
@@ -5087,61 +5087,61 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J33" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K33" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L33" t="n">
         <v>3.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="R33" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U33" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="V33" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="X33" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z33" t="n">
         <v>11</v>
@@ -5150,52 +5150,52 @@
         <v>9</v>
       </c>
       <c r="AB33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC33" t="n">
         <v>17</v>
       </c>
-      <c r="AC33" t="n">
-        <v>15</v>
-      </c>
       <c r="AD33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE33" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
         <v>41</v>
       </c>
       <c r="AI33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ33" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK33" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO33" t="n">
         <v>29</v>
       </c>
       <c r="AP33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5232,22 +5232,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L34" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
@@ -5256,22 +5256,22 @@
         <v>17</v>
       </c>
       <c r="O34" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T34" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.57</v>
       </c>
       <c r="U34" t="n">
         <v>1.29</v>
@@ -5337,10 +5337,10 @@
         <v>19</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5377,64 +5377,64 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H35" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K35" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R35" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="S35" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="T35" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U35" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="V35" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W35" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X35" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y35" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA35" t="n">
         <v>8.5</v>
@@ -5449,22 +5449,22 @@
         <v>21</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
         <v>8</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
         <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK35" t="n">
         <v>23</v>
@@ -5479,13 +5479,13 @@
         <v>29</v>
       </c>
       <c r="AO35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5522,64 +5522,64 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N36" t="n">
+        <v>17</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X36" t="n">
         <v>2.63</v>
       </c>
-      <c r="J36" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N36" t="n">
-        <v>19</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P36" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X36" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Y36" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z36" t="n">
         <v>15</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>17</v>
       </c>
       <c r="AA36" t="n">
         <v>10</v>
@@ -5591,13 +5591,13 @@
         <v>17</v>
       </c>
       <c r="AD36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE36" t="n">
         <v>19</v>
       </c>
-      <c r="AE36" t="n">
-        <v>21</v>
-      </c>
       <c r="AF36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
@@ -5606,31 +5606,31 @@
         <v>29</v>
       </c>
       <c r="AI36" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK36" t="n">
         <v>15</v>
       </c>
-      <c r="AK36" t="n">
+      <c r="AL36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN36" t="n">
         <v>17</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>19</v>
       </c>
       <c r="AO36" t="n">
         <v>21</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -5667,13 +5667,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H37" t="n">
         <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
         <v>1.8</v>
@@ -5715,10 +5715,10 @@
         <v>4.33</v>
       </c>
       <c r="W37" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X37" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -5739,7 +5739,7 @@
         <v>19</v>
       </c>
       <c r="AE37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF37" t="n">
         <v>12</v>
@@ -5949,19 +5949,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I39" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
         <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L39" t="n">
         <v>6</v>
@@ -5973,22 +5973,22 @@
         <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P39" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R39" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S39" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T39" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U39" t="n">
         <v>1.3</v>
@@ -5997,34 +5997,34 @@
         <v>3.4</v>
       </c>
       <c r="W39" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X39" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
       </c>
       <c r="Z39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB39" t="n">
         <v>11</v>
       </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE39" t="n">
         <v>15</v>
       </c>
       <c r="AF39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG39" t="n">
         <v>17</v>
@@ -6033,10 +6033,10 @@
         <v>51</v>
       </c>
       <c r="AI39" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK39" t="n">
         <v>34</v>
@@ -6054,10 +6054,10 @@
         <v>41</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6097,64 +6097,64 @@
         <v>3.4</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L40" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N40" t="n">
+        <v>9</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P40" t="n">
         <v>3</v>
       </c>
-      <c r="M40" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N40" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q40" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="R40" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S40" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="T40" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="U40" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V40" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W40" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X40" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z40" t="n">
         <v>17</v>
       </c>
       <c r="AA40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB40" t="n">
         <v>41</v>
@@ -6166,22 +6166,22 @@
         <v>41</v>
       </c>
       <c r="AE40" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF40" t="n">
         <v>6</v>
       </c>
       <c r="AG40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH40" t="n">
         <v>51</v>
       </c>
       <c r="AI40" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ40" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK40" t="n">
         <v>10</v>
@@ -6193,7 +6193,7 @@
         <v>21</v>
       </c>
       <c r="AN40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO40" t="n">
         <v>34</v>
@@ -6239,22 +6239,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
         <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>1.08</v>
@@ -6296,16 +6296,16 @@
         <v>7</v>
       </c>
       <c r="Z41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD41" t="n">
         <v>34</v>
@@ -6326,19 +6326,19 @@
         <v>351</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO41" t="n">
         <v>41</v>
@@ -6970,10 +6970,10 @@
         <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="O46" t="n">
         <v>1.25</v>
@@ -6982,10 +6982,10 @@
         <v>3.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S46" t="n">
         <v>3</v>
@@ -7093,10 +7093,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I47" t="n">
         <v>4.75</v>
@@ -7108,7 +7108,7 @@
         <v>2.1</v>
       </c>
       <c r="L47" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
         <v>1.06</v>
@@ -7147,10 +7147,10 @@
         <v>1.8</v>
       </c>
       <c r="Y47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA47" t="n">
         <v>9</v>
@@ -7165,7 +7165,7 @@
         <v>29</v>
       </c>
       <c r="AE47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF47" t="n">
         <v>7</v>
@@ -7177,7 +7177,7 @@
         <v>51</v>
       </c>
       <c r="AI47" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ47" t="n">
         <v>13</v>
@@ -7375,10 +7375,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I49" t="n">
         <v>2.55</v>
@@ -7387,7 +7387,7 @@
         <v>3.75</v>
       </c>
       <c r="K49" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L49" t="n">
         <v>3.4</v>
@@ -7405,10 +7405,10 @@
         <v>2.63</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R49" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S49" t="n">
         <v>4.5</v>
@@ -7417,16 +7417,16 @@
         <v>1.18</v>
       </c>
       <c r="U49" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V49" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W49" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X49" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y49" t="n">
         <v>7.5</v>
@@ -7435,19 +7435,19 @@
         <v>13</v>
       </c>
       <c r="AA49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB49" t="n">
         <v>29</v>
       </c>
       <c r="AC49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD49" t="n">
         <v>41</v>
       </c>
       <c r="AE49" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF49" t="n">
         <v>6</v>
@@ -7462,7 +7462,7 @@
         <v>351</v>
       </c>
       <c r="AJ49" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK49" t="n">
         <v>11</v>
@@ -7482,10 +7482,10 @@
       <c r="AP49" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
       <c r="AR49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="50">
@@ -7523,19 +7523,19 @@
         <v>2.07</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I50" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J50" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="K50" t="n">
         <v>2.18</v>
       </c>
       <c r="L50" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M50" t="n">
         <v>1.05</v>
@@ -7547,37 +7547,37 @@
         <v>1.23</v>
       </c>
       <c r="P50" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q50" t="n">
         <v>1.7</v>
       </c>
       <c r="R50" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S50" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="T50" t="n">
         <v>1.42</v>
       </c>
       <c r="U50" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="V50" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="W50" t="n">
         <v>1.6</v>
       </c>
       <c r="X50" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Y50" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z50" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA50" t="n">
         <v>8.5</v>
@@ -7586,7 +7586,7 @@
         <v>20</v>
       </c>
       <c r="AC50" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD50" t="n">
         <v>22</v>
@@ -7595,13 +7595,13 @@
         <v>8</v>
       </c>
       <c r="AF50" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AG50" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH50" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="n">
         <v>300</v>
@@ -7613,13 +7613,13 @@
         <v>18.5</v>
       </c>
       <c r="AL50" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AM50" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN50" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO50" t="n">
         <v>29</v>
@@ -7661,10 +7661,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="H51" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I51" t="n">
         <v>1.75</v>
@@ -7673,10 +7673,10 @@
         <v>4.45</v>
       </c>
       <c r="K51" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L51" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="M51" t="n">
         <v>1.04</v>
@@ -7685,73 +7685,73 @@
         <v>8.25</v>
       </c>
       <c r="O51" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P51" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R51" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S51" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="T51" t="n">
         <v>1.44</v>
       </c>
       <c r="U51" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="V51" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="W51" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X51" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Y51" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z51" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AA51" t="n">
         <v>13.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AC51" t="n">
         <v>37</v>
       </c>
       <c r="AD51" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE51" t="n">
         <v>8.25</v>
       </c>
       <c r="AF51" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG51" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH51" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AJ51" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK51" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AL51" t="n">
         <v>8</v>
@@ -7760,10 +7760,10 @@
         <v>14.5</v>
       </c>
       <c r="AN51" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO51" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP51" t="inlineStr"/>
       <c r="AQ51" t="inlineStr"/>
@@ -7802,52 +7802,52 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="H52" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I52" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="J52" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="K52" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L52" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M52" t="n">
         <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O52" t="n">
         <v>1.21</v>
       </c>
       <c r="P52" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R52" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S52" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T52" t="n">
         <v>1.47</v>
       </c>
       <c r="U52" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="V52" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="W52" t="n">
         <v>1.55</v>
@@ -7856,31 +7856,31 @@
         <v>2.3</v>
       </c>
       <c r="Y52" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="Z52" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AA52" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AC52" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD52" t="n">
         <v>21</v>
       </c>
       <c r="AE52" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF52" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AG52" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH52" t="n">
         <v>40</v>
@@ -7889,19 +7889,19 @@
         <v>250</v>
       </c>
       <c r="AJ52" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL52" t="n">
         <v>11.5</v>
       </c>
-      <c r="AK52" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AM52" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AN52" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO52" t="n">
         <v>27</v>
@@ -8030,7 +8030,7 @@
         <v>151</v>
       </c>
       <c r="AJ53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK53" t="n">
         <v>23</v>
@@ -8930,22 +8930,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="H60" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I60" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J60" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="L60" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="M60" t="n">
         <v>1.11</v>
@@ -8975,64 +8975,64 @@
         <v>1.53</v>
       </c>
       <c r="V60" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W60" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="X60" t="n">
         <v>1.62</v>
       </c>
       <c r="Y60" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z60" t="n">
         <v>9.5</v>
       </c>
       <c r="AA60" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB60" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC60" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD60" t="n">
         <v>45</v>
       </c>
       <c r="AE60" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AF60" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AG60" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI60" t="n">
         <v>101</v>
       </c>
       <c r="AJ60" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AK60" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL60" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM60" t="n">
         <v>50</v>
       </c>
       <c r="AN60" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO60" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
@@ -9071,22 +9071,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="H61" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I61" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J61" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="K61" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L61" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
@@ -9095,7 +9095,7 @@
         <v>7.3</v>
       </c>
       <c r="O61" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P61" t="n">
         <v>3.3</v>
@@ -9119,13 +9119,13 @@
         <v>2.72</v>
       </c>
       <c r="W61" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X61" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y61" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Z61" t="n">
         <v>10.75</v>
@@ -9134,10 +9134,10 @@
         <v>8.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC61" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD61" t="n">
         <v>25</v>
@@ -9146,7 +9146,7 @@
         <v>7.3</v>
       </c>
       <c r="AF61" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AG61" t="n">
         <v>13</v>
@@ -9158,22 +9158,22 @@
         <v>400</v>
       </c>
       <c r="AJ61" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK61" t="n">
         <v>18</v>
       </c>
       <c r="AL61" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AM61" t="n">
         <v>45</v>
       </c>
       <c r="AN61" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO61" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
@@ -695,13 +695,13 @@
         <v>4.33</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
         <v>1.85</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
         <v>2.25</v>
@@ -710,34 +710,34 @@
         <v>2.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W2" t="n">
         <v>1.7</v>
@@ -749,25 +749,25 @@
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD2" t="n">
         <v>34</v>
       </c>
-      <c r="AD2" t="n">
-        <v>41</v>
-      </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -776,13 +776,13 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL2" t="n">
         <v>8.5</v>
@@ -791,7 +791,7 @@
         <v>15</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
@@ -842,7 +842,7 @@
         <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
@@ -857,22 +857,22 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U3" t="n">
         <v>1.36</v>
@@ -887,7 +887,7 @@
         <v>2.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>12</v>
@@ -974,46 +974,46 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U4" t="n">
         <v>1.4</v>
@@ -1022,31 +1022,31 @@
         <v>2.75</v>
       </c>
       <c r="W4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
         <v>21</v>
       </c>
-      <c r="AC4" t="n">
-        <v>17</v>
-      </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF4" t="n">
         <v>6</v>
@@ -1058,22 +1058,22 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL4" t="n">
         <v>11</v>
       </c>
-      <c r="AK4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>12</v>
-      </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
         <v>34</v>
@@ -1275,7 +1275,7 @@
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1290,10 +1290,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1335,7 +1335,7 @@
         <v>6.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG6" t="n">
         <v>17</v>
@@ -1367,10 +1367,10 @@
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
@@ -1842,28 +1842,28 @@
         <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.33</v>
       </c>
       <c r="U10" t="n">
         <v>1.4</v>
@@ -1893,7 +1893,7 @@
         <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE10" t="n">
         <v>10</v>
@@ -1911,7 +1911,7 @@
         <v>201</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -2823,91 +2823,91 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y17" t="n">
         <v>6</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA17" t="n">
         <v>9.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
         <v>21</v>
       </c>
       <c r="AD17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
         <v>67</v>
       </c>
       <c r="AI17" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ17" t="n">
         <v>8.5</v>
@@ -2930,10 +2930,10 @@
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="18">
@@ -4693,13 +4693,13 @@
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q30" t="n">
         <v>2.25</v>
@@ -4954,19 +4954,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
         <v>2.02</v>
       </c>
       <c r="J32" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L32" t="n">
         <v>2.57</v>
@@ -4977,13 +4977,13 @@
         <v>1.22</v>
       </c>
       <c r="P32" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R32" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S32" t="n">
         <v>2.57</v>
@@ -5000,7 +5000,7 @@
         <v>2.07</v>
       </c>
       <c r="Y32" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Z32" t="n">
         <v>18</v>
@@ -5012,16 +5012,16 @@
         <v>40</v>
       </c>
       <c r="AC32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD32" t="n">
         <v>30</v>
       </c>
       <c r="AE32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AG32" t="n">
         <v>13</v>
@@ -5033,16 +5033,16 @@
         <v>350</v>
       </c>
       <c r="AJ32" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK32" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AL32" t="n">
         <v>8.5</v>
       </c>
       <c r="AM32" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN32" t="n">
         <v>15</v>
@@ -5949,52 +5949,52 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H39" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K39" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L39" t="n">
         <v>6</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P39" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R39" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S39" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T39" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W39" t="n">
         <v>1.8</v>
@@ -6021,10 +6021,10 @@
         <v>23</v>
       </c>
       <c r="AE39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG39" t="n">
         <v>17</v>
@@ -6094,22 +6094,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H40" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K40" t="n">
         <v>2.05</v>
       </c>
       <c r="L40" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
@@ -6118,16 +6118,16 @@
         <v>9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R40" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S40" t="n">
         <v>3.75</v>
@@ -6136,31 +6136,31 @@
         <v>1.25</v>
       </c>
       <c r="U40" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V40" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W40" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X40" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB40" t="n">
         <v>41</v>
       </c>
       <c r="AC40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD40" t="n">
         <v>41</v>
@@ -6178,25 +6178,25 @@
         <v>51</v>
       </c>
       <c r="AI40" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ40" t="n">
         <v>7</v>
       </c>
       <c r="AK40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM40" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -7093,13 +7093,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J47" t="n">
         <v>2.3</v>
@@ -7108,13 +7108,13 @@
         <v>2.1</v>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O47" t="n">
         <v>1.3</v>
@@ -7150,7 +7150,7 @@
         <v>6.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA47" t="n">
         <v>9</v>
@@ -7375,16 +7375,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
         <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J49" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K49" t="n">
         <v>1.95</v>
@@ -7393,10 +7393,10 @@
         <v>3.4</v>
       </c>
       <c r="M49" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
@@ -7465,7 +7465,7 @@
         <v>7</v>
       </c>
       <c r="AK49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL49" t="n">
         <v>11</v>
@@ -9071,13 +9071,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>3.25</v>
       </c>
       <c r="I61" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J61" t="n">
         <v>2.7</v>
@@ -9086,7 +9086,7 @@
         <v>2.1</v>
       </c>
       <c r="L61" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
@@ -9149,19 +9149,19 @@
         <v>6.4</v>
       </c>
       <c r="AG61" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI61" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AJ61" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK61" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL61" t="n">
         <v>11.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
@@ -2124,10 +2124,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
         <v>1.53</v>
@@ -2217,10 +2217,10 @@
         <v>1.2</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="13">
@@ -4813,22 +4813,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I31" t="n">
         <v>3.1</v>
       </c>
-      <c r="I31" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
         <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4837,10 +4837,10 @@
         <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
         <v>2.1</v>
@@ -4855,37 +4855,37 @@
         <v>1.25</v>
       </c>
       <c r="U31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W31" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y31" t="n">
         <v>7.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC31" t="n">
         <v>21</v>
       </c>
       <c r="AD31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF31" t="n">
         <v>6</v>
@@ -4900,19 +4900,19 @@
         <v>301</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
         <v>11</v>
       </c>
       <c r="AM31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO31" t="n">
         <v>34</v>
@@ -8930,106 +8930,106 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
-        <v>2.85</v>
+        <v>2.52</v>
       </c>
       <c r="I60" t="n">
         <v>3.4</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K60" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="L60" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="M60" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N60" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="O60" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P60" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R60" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S60" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="T60" t="n">
         <v>1.15</v>
       </c>
       <c r="U60" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V60" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="W60" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X60" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Y60" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="Z60" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA60" t="n">
         <v>9.75</v>
       </c>
       <c r="AB60" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AC60" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD60" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE60" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="AG60" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI60" t="n">
         <v>101</v>
       </c>
       <c r="AJ60" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AK60" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL60" t="n">
         <v>12</v>
       </c>
       <c r="AM60" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN60" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO60" t="n">
         <v>50</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-31.xlsx
@@ -2106,22 +2106,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>1.91</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.13</v>
@@ -2163,13 +2163,13 @@
         <v>6</v>
       </c>
       <c r="Z12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA12" t="n">
         <v>10</v>
       </c>
-      <c r="AA12" t="n">
-        <v>11</v>
-      </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
         <v>23</v>
@@ -2181,25 +2181,25 @@
         <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI12" t="n">
         <v>101</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL12" t="n">
         <v>15</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>13</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
@@ -2217,10 +2217,10 @@
         <v>1.2</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="13">
@@ -4813,22 +4813,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
         <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4843,10 +4843,10 @@
         <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R31" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
         <v>3.75</v>
@@ -4861,25 +4861,25 @@
         <v>2.63</v>
       </c>
       <c r="W31" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X31" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
         <v>9.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="n">
         <v>29</v>
@@ -4900,22 +4900,22 @@
         <v>301</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK31" t="n">
         <v>15</v>
       </c>
       <c r="AL31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM31" t="n">
         <v>34</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -4954,22 +4954,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="J32" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L32" t="n">
-        <v>2.57</v>
+        <v>2.8</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -4986,7 +4986,7 @@
         <v>1.98</v>
       </c>
       <c r="S32" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="T32" t="n">
         <v>1.39</v>
@@ -4994,61 +4994,61 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X32" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="Y32" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z32" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AB32" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AC32" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AD32" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE32" t="n">
         <v>12.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
         <v>50</v>
       </c>
       <c r="AI32" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AL32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM32" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AN32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
